--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-3.22580645161283</v>
+      </c>
       <c r="L12" t="n">
         <v>6.000999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25.00000000000018</v>
+      </c>
       <c r="L14" t="n">
         <v>5.999999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.3800000000000008</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>5.263157894736744</v>
+      </c>
       <c r="L15" t="n">
         <v>6.005999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4500000000000011</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-23.07692307692329</v>
+      </c>
       <c r="L16" t="n">
         <v>5.999999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5200000000000014</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-3.22580645161283</v>
+      </c>
       <c r="L17" t="n">
         <v>6.000999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5200000000000014</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>5.999999999999997</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6100000000000012</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>6.000999999999997</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.6100000000000012</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>39.13043478260856</v>
+      </c>
       <c r="L20" t="n">
         <v>6.000999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6100000000000012</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>39.13043478260856</v>
+      </c>
       <c r="L21" t="n">
         <v>6.009999999999997</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6100000000000012</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>39.13043478260856</v>
+      </c>
       <c r="L22" t="n">
         <v>6.018999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K23" t="n">
-        <v>14.8148148148148</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L23" t="n">
         <v>6.027999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K24" t="n">
-        <v>16.98113207547163</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L24" t="n">
         <v>6.036999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K25" t="n">
-        <v>31.91489361702131</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>6.045999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K26" t="n">
-        <v>23.80952380952373</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>6.061999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K27" t="n">
-        <v>23.80952380952373</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>6.070999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.6300000000000017</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571417</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>6.077999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>0.7800000000000011</v>
       </c>
       <c r="K29" t="n">
-        <v>-32.00000000000003</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>6.060999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>0.870000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-13.79310344827587</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L30" t="n">
         <v>6.052999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.9800000000000013</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.66666666666674</v>
+        <v>-51.35135135135144</v>
       </c>
       <c r="L31" t="n">
         <v>6.033999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>0.9900000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.03278688524594</v>
+        <v>-52.63157894736848</v>
       </c>
       <c r="L32" t="n">
         <v>6.013999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>0.9900000000000011</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.03278688524594</v>
+        <v>-52.63157894736848</v>
       </c>
       <c r="L33" t="n">
         <v>5.993999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.090909090909165</v>
+        <v>-34.88372093023266</v>
       </c>
       <c r="L34" t="n">
         <v>5.978999999999997</v>
@@ -2013,7 +2035,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.347826086956555</v>
+        <v>-26.08695652173916</v>
       </c>
       <c r="L35" t="n">
         <v>5.966999999999997</v>
@@ -2064,7 +2086,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>13.4328358208955</v>
+        <v>-13.72549019607849</v>
       </c>
       <c r="L36" t="n">
         <v>5.959999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>3.333333333333265</v>
+        <v>-10.20408163265304</v>
       </c>
       <c r="L37" t="n">
         <v>5.952999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.14492753623193</v>
+        <v>2.325581395348789</v>
       </c>
       <c r="L38" t="n">
         <v>5.938999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>1.320000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.042253521126736</v>
+        <v>6.666666666666719</v>
       </c>
       <c r="L39" t="n">
         <v>5.950999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-10.81081081081082</v>
+        <v>29.72972972972981</v>
       </c>
       <c r="L40" t="n">
         <v>5.950999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-10.81081081081082</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>5.961999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-10.81081081081082</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>5.973999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.81081081081082</v>
+        <v>22.58064516129038</v>
       </c>
       <c r="L43" t="n">
         <v>5.985999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.81081081081082</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>5.992999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-10.81081081081082</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L45" t="n">
         <v>5.996999999999998</v>
@@ -2574,7 +2596,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.81081081081082</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L46" t="n">
         <v>5.995999999999997</v>
@@ -2625,7 +2647,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-10.81081081081082</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L47" t="n">
         <v>5.994999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.333333333333282</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>6.002999999999998</v>
@@ -2726,9 +2748,7 @@
       <c r="J49" t="n">
         <v>1.350000000000001</v>
       </c>
-      <c r="K49" t="n">
-        <v>15.78947368421049</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>5.999999999999998</v>
       </c>
@@ -2778,7 +2798,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>6.004</v>
@@ -2829,7 +2849,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>36.58536585365861</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>6.008</v>
@@ -2884,7 +2904,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>6.012</v>
@@ -2943,7 +2963,7 @@
         <v>1.530000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>3.703703703703789</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L53" t="n">
         <v>6.002000000000001</v>
@@ -3000,7 +3020,7 @@
         <v>1.670000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>17.46031746031752</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L54" t="n">
         <v>6.006000000000002</v>
@@ -3057,7 +3077,7 @@
         <v>1.670000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>13.33333333333335</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L55" t="n">
         <v>6.010000000000002</v>
@@ -3114,7 +3134,7 @@
         <v>1.81</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.94202898550718</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L56" t="n">
         <v>6.000000000000003</v>
@@ -3171,7 +3191,7 @@
         <v>1.95</v>
       </c>
       <c r="K57" t="n">
-        <v>3.614457831325335</v>
+        <v>6.666666666666686</v>
       </c>
       <c r="L57" t="n">
         <v>6.004000000000003</v>
@@ -3228,7 +3248,7 @@
         <v>1.95</v>
       </c>
       <c r="K58" t="n">
-        <v>16.21621621621625</v>
+        <v>6.666666666666686</v>
       </c>
       <c r="L58" t="n">
         <v>6.008000000000004</v>
@@ -3285,7 +3305,7 @@
         <v>1.95</v>
       </c>
       <c r="K59" t="n">
-        <v>1.587301587301556</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>6.012000000000005</v>
@@ -3342,7 +3362,7 @@
         <v>1.95</v>
       </c>
       <c r="K60" t="n">
-        <v>6.666666666666686</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>6.012000000000006</v>
@@ -3399,7 +3419,7 @@
         <v>1.95</v>
       </c>
       <c r="K61" t="n">
-        <v>6.666666666666686</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>6.012000000000006</v>
@@ -3456,7 +3476,7 @@
         <v>1.95</v>
       </c>
       <c r="K62" t="n">
-        <v>6.666666666666686</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>6.012000000000006</v>
@@ -3513,7 +3533,7 @@
         <v>1.96</v>
       </c>
       <c r="K63" t="n">
-        <v>8.1967213114754</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L63" t="n">
         <v>6.027000000000006</v>
@@ -3570,7 +3590,7 @@
         <v>1.96</v>
       </c>
       <c r="K64" t="n">
-        <v>8.1967213114754</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L64" t="n">
         <v>6.028000000000007</v>
@@ -3627,7 +3647,7 @@
         <v>1.96</v>
       </c>
       <c r="K65" t="n">
-        <v>8.1967213114754</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>6.029000000000007</v>
@@ -3684,7 +3704,7 @@
         <v>1.96</v>
       </c>
       <c r="K66" t="n">
-        <v>8.1967213114754</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>6.044000000000008</v>
@@ -3741,7 +3761,7 @@
         <v>1.96</v>
       </c>
       <c r="K67" t="n">
-        <v>8.1967213114754</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>6.045000000000008</v>
@@ -3798,7 +3818,7 @@
         <v>1.96</v>
       </c>
       <c r="K68" t="n">
-        <v>8.1967213114754</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>6.046000000000008</v>
@@ -3855,7 +3875,7 @@
         <v>1.96</v>
       </c>
       <c r="K69" t="n">
-        <v>8.1967213114754</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>6.047000000000009</v>
@@ -3912,7 +3932,7 @@
         <v>1.96</v>
       </c>
       <c r="K70" t="n">
-        <v>1.754385964912248</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>6.04800000000001</v>
@@ -3969,7 +3989,7 @@
         <v>1.96</v>
       </c>
       <c r="K71" t="n">
-        <v>1.754385964912248</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>6.04900000000001</v>
@@ -4025,9 +4045,7 @@
       <c r="J72" t="n">
         <v>1.96</v>
       </c>
-      <c r="K72" t="n">
-        <v>1.754385964912248</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>6.05000000000001</v>
       </c>
@@ -4076,9 +4094,7 @@
       <c r="J73" t="n">
         <v>1.96</v>
       </c>
-      <c r="K73" t="n">
-        <v>34.88372093023253</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>6.050000000000011</v>
       </c>
@@ -4127,9 +4143,7 @@
       <c r="J74" t="n">
         <v>1.96</v>
       </c>
-      <c r="K74" t="n">
-        <v>3.448275862068902</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>6.050000000000011</v>
       </c>
@@ -4178,9 +4192,7 @@
       <c r="J75" t="n">
         <v>1.96</v>
       </c>
-      <c r="K75" t="n">
-        <v>3.448275862068902</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>6.050000000000011</v>
       </c>
@@ -4229,9 +4241,7 @@
       <c r="J76" t="n">
         <v>1.96</v>
       </c>
-      <c r="K76" t="n">
-        <v>100</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>6.050000000000011</v>
       </c>
@@ -4280,9 +4290,7 @@
       <c r="J77" t="n">
         <v>1.96</v>
       </c>
-      <c r="K77" t="n">
-        <v>100</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>6.050000000000011</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>1.97</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>6.049000000000012</v>
@@ -4383,7 +4391,7 @@
         <v>2.12</v>
       </c>
       <c r="K79" t="n">
-        <v>-88.2352941176473</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>6.033000000000013</v>
@@ -4434,7 +4442,7 @@
         <v>2.27</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L80" t="n">
         <v>6.032000000000013</v>
@@ -4485,7 +4493,7 @@
         <v>2.27</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L81" t="n">
         <v>6.031000000000015</v>
@@ -4536,7 +4544,7 @@
         <v>2.290000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.882352941176594</v>
+        <v>-9.09090909090914</v>
       </c>
       <c r="L82" t="n">
         <v>6.028000000000015</v>
@@ -4791,7 +4799,7 @@
         <v>2.460000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>-31.99999999999992</v>
+        <v>-30.61224489795913</v>
       </c>
       <c r="L87" t="n">
         <v>6.006000000000017</v>
@@ -4842,7 +4850,7 @@
         <v>2.600000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.124999999999922</v>
+        <v>29.16666666666665</v>
       </c>
       <c r="L88" t="n">
         <v>6.005000000000018</v>
@@ -4893,7 +4901,7 @@
         <v>2.600000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.124999999999922</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L89" t="n">
         <v>6.019000000000017</v>
@@ -4944,7 +4952,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>-4.615384615384633</v>
+        <v>-5.882352941176562</v>
       </c>
       <c r="L90" t="n">
         <v>6.017000000000016</v>
@@ -4995,7 +5003,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>-4.615384615384633</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>6.015000000000017</v>
@@ -5046,7 +5054,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.615384615384633</v>
+        <v>-3.225806451613106</v>
       </c>
       <c r="L92" t="n">
         <v>6.015000000000017</v>
@@ -5097,7 +5105,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.615384615384633</v>
+        <v>-3.225806451613106</v>
       </c>
       <c r="L93" t="n">
         <v>6.014000000000017</v>
@@ -5148,7 +5156,7 @@
         <v>2.620000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.06060606060604</v>
+        <v>-9.677419354838747</v>
       </c>
       <c r="L94" t="n">
         <v>6.012000000000017</v>
@@ -5199,7 +5207,7 @@
         <v>2.620000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.06060606060604</v>
+        <v>-9.677419354838747</v>
       </c>
       <c r="L95" t="n">
         <v>6.009000000000018</v>
@@ -5250,7 +5258,7 @@
         <v>2.620000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.06060606060604</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L96" t="n">
         <v>6.006000000000018</v>
@@ -5301,7 +5309,7 @@
         <v>2.740000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>-20.51282051282045</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>6.006000000000017</v>
@@ -5352,7 +5360,7 @@
         <v>2.860000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>-3.370786516853948</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L98" t="n">
         <v>6.004000000000017</v>
@@ -5403,7 +5411,7 @@
         <v>3.000000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>-2.272727272727217</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L99" t="n">
         <v>5.988000000000018</v>
@@ -5454,7 +5462,7 @@
         <v>3.000000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>-23.28767123287663</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L100" t="n">
         <v>5.973000000000019</v>
@@ -5505,7 +5513,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.651162790697668</v>
+        <v>-3.846153846153767</v>
       </c>
       <c r="L101" t="n">
         <v>5.97100000000002</v>
@@ -5556,7 +5564,7 @@
         <v>3.150000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>-4.651162790697569</v>
+        <v>-7.407407407407261</v>
       </c>
       <c r="L102" t="n">
         <v>5.96700000000002</v>
@@ -5607,7 +5615,7 @@
         <v>3.150000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>-5.882352941176446</v>
+        <v>-5.660377358490452</v>
       </c>
       <c r="L103" t="n">
         <v>5.963000000000021</v>
@@ -5658,7 +5666,7 @@
         <v>3.150000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>-5.882352941176446</v>
+        <v>-5.660377358490452</v>
       </c>
       <c r="L104" t="n">
         <v>5.960000000000021</v>
@@ -5709,7 +5717,7 @@
         <v>3.150000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>-7.14285714285709</v>
+        <v>-5.660377358490452</v>
       </c>
       <c r="L105" t="n">
         <v>5.957000000000021</v>
@@ -5760,7 +5768,7 @@
         <v>3.260000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>-17.89473684210524</v>
+        <v>-3.846153846153767</v>
       </c>
       <c r="L106" t="n">
         <v>5.943000000000021</v>
@@ -5811,7 +5819,7 @@
         <v>3.360000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>8.888888888888893</v>
+        <v>-8.000000000000021</v>
       </c>
       <c r="L107" t="n">
         <v>5.951000000000022</v>
@@ -5862,7 +5870,7 @@
         <v>3.360000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.89473684210533</v>
+        <v>27.77777777777772</v>
       </c>
       <c r="L108" t="n">
         <v>5.947000000000022</v>
@@ -5913,7 +5921,7 @@
         <v>3.360000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-7.89473684210533</v>
+        <v>27.77777777777772</v>
       </c>
       <c r="L109" t="n">
         <v>5.957000000000023</v>
@@ -5964,7 +5972,7 @@
         <v>3.360000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.666666666666651</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L110" t="n">
         <v>5.967000000000024</v>
@@ -6015,7 +6023,7 @@
         <v>3.390000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-10.25641025641017</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L111" t="n">
         <v>5.961000000000024</v>
@@ -6066,7 +6074,7 @@
         <v>3.390000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-10.25641025641017</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L112" t="n">
         <v>5.957000000000024</v>
@@ -6117,7 +6125,7 @@
         <v>3.390000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-10.25641025641017</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L113" t="n">
         <v>5.953000000000022</v>
@@ -6168,7 +6176,7 @@
         <v>3.400000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-7.692307692307657</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L114" t="n">
         <v>5.950000000000022</v>
@@ -6219,7 +6227,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.000000000000017</v>
+        <v>62.50000000000042</v>
       </c>
       <c r="L115" t="n">
         <v>5.949000000000022</v>
@@ -6270,7 +6278,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-5.000000000000017</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>5.959000000000023</v>
@@ -6321,7 +6329,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>11.76470588235299</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>5.959000000000023</v>
@@ -6372,7 +6380,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.142857142857177</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>5.959000000000023</v>
@@ -6423,7 +6431,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>23.80952380952383</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>5.959000000000023</v>
@@ -6474,7 +6482,7 @@
         <v>3.420000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>23.80952380952383</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>5.959000000000023</v>
@@ -6525,7 +6533,7 @@
         <v>3.52</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333348</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L121" t="n">
         <v>5.952000000000024</v>
@@ -6576,7 +6584,7 @@
         <v>3.62</v>
       </c>
       <c r="K122" t="n">
-        <v>-2.127659574468238</v>
+        <v>13.04347826086937</v>
       </c>
       <c r="L122" t="n">
         <v>5.955000000000024</v>
@@ -6627,7 +6635,7 @@
         <v>3.62</v>
       </c>
       <c r="K123" t="n">
-        <v>-2.127659574468238</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L123" t="n">
         <v>5.958000000000024</v>
@@ -6678,7 +6686,7 @@
         <v>3.62</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.127659574468238</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>5.960000000000024</v>
@@ -6729,7 +6737,7 @@
         <v>3.62</v>
       </c>
       <c r="K125" t="n">
-        <v>-2.127659574468238</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>5.960000000000024</v>
@@ -6780,7 +6788,7 @@
         <v>3.62</v>
       </c>
       <c r="K126" t="n">
-        <v>27.77777777777786</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>5.960000000000024</v>
@@ -6984,7 +6992,7 @@
         <v>3.72</v>
       </c>
       <c r="K130" t="n">
-        <v>-27.77777777777786</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>5.950000000000024</v>
@@ -7035,7 +7043,7 @@
         <v>3.81</v>
       </c>
       <c r="K131" t="n">
-        <v>4.761904761904681</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L131" t="n">
         <v>5.959000000000024</v>
@@ -7086,7 +7094,7 @@
         <v>3.81</v>
       </c>
       <c r="K132" t="n">
-        <v>4.761904761904681</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L132" t="n">
         <v>5.958000000000024</v>
@@ -7137,7 +7145,7 @@
         <v>3.81</v>
       </c>
       <c r="K133" t="n">
-        <v>4.761904761904681</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L133" t="n">
         <v>5.957000000000024</v>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.07000000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.1400000000000006</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2100000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1400000000000006</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2900000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5.995</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3800000000000008</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-3.22580645161283</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.000999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3800000000000008</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.3800000000000008</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25.00000000000018</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.999999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3800000000000008</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.263157894736744</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.005999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4500000000000011</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-23.07692307692329</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5200000000000014</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-3.22580645161283</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.000999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1011,19 @@
         <v>6.022000000000006</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5200000000000014</v>
+        <v>5.99</v>
       </c>
       <c r="K18" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.999999999999997</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1053,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.000999999999997</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1094,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.000999999999998</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1135,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.009999999999997</v>
+        <v>5.99</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>6.002499999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1176,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.018999999999997</v>
+        <v>5.99</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>6.009999999999998</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1217,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.027999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>6.013999999999998</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1258,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.036999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>6.018499999999998</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1299,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6.045999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>6.025999999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1340,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.061999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>6.030999999999997</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1381,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.070999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>6.035999999999997</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1422,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6300000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.077999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>6.038999999999997</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1463,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.060999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>6.030999999999997</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1504,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.870000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>-30.76923076923082</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.052999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>6.026999999999997</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1545,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9800000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>-51.35135135135144</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6.033999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>6.021999999999998</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.013000000000001</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1586,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.9900000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-52.63157894736848</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.013999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>6.016499999999998</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.011333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1627,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.9900000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>-52.63157894736848</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.993999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>6.010999999999997</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.007333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,26 +1670,16 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.040000000000001</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-34.88372093023266</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.978999999999997</v>
+        <v>5.99</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>6.007999999999997</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.005333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1706,23 @@
         <v>6.018833333333339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.070000000000001</v>
+        <v>5.96</v>
       </c>
       <c r="K35" t="n">
-        <v>-26.08695652173916</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.966999999999997</v>
+        <v>5.99</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>6.006499999999997</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.006333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1749,23 @@
         <v>6.018666666666673</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.120000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="K36" t="n">
-        <v>-13.72549019607849</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.959999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>6.010999999999997</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.007333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1792,23 @@
         <v>6.017666666666672</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.120000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.20408163265304</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.952999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>6.011999999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.008333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1838,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.210000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>2.325581395348789</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.938999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>6.008499999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.005666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1879,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.320000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>6.666666666666719</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.950999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>6.005999999999998</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.004333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1917,23 @@
         <v>6.013333333333339</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.350000000000001</v>
+        <v>5.88</v>
       </c>
       <c r="K40" t="n">
-        <v>29.72972972972981</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.950999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>6.001999999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6.001666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1963,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.961999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>5.997999999999999</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6.001999999999999</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2004,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.973999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>5.993999999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6.002333333333332</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2045,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>22.58064516129038</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.985999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>5.989999999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6.002666666666665</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2086,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.992999999999999</v>
+        <v>5.99</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>5.985999999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>6.002999999999998</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2127,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-4.347826086956421</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.996999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>5.981999999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>6.003333333333331</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2168,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>-4.347826086956421</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.995999999999997</v>
+        <v>5.99</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>5.978</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6.005999999999998</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2209,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>57.14285714285696</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.994999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>5.973999999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>6.006333333333331</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2250,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.002999999999998</v>
+        <v>5.99</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>5.970999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6.006666666666664</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,26 +2291,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.350000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>5.999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>5.975499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>6.003999999999997</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,28 +2332,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.390000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.004</v>
+        <v>5.99</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>5.9775</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6.002666666666664</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,35 +2370,21 @@
         <v>6.00000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.390000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.008</v>
+        <v>5.99</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>5.985</v>
-      </c>
-      <c r="N51" t="n">
-        <v>6.00133333333333</v>
-      </c>
-      <c r="O51" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2895,39 +2411,21 @@
         <v>6.001833333333343</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.390000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.012</v>
+        <v>5.99</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.999999999999996</v>
-      </c>
-      <c r="O52" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,37 +2452,21 @@
         <v>5.999000000000009</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.530000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-55.55555555555544</v>
-      </c>
-      <c r="L53" t="n">
-        <v>6.002000000000001</v>
+        <v>5.99</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>5.994000000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.993999999999995</v>
-      </c>
-      <c r="O53" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="P53" t="n">
-        <v>6.251</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,34 +2496,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.670000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>12.50000000000004</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.006000000000002</v>
+        <v>5.99</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>5.999500000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5.992666666666661</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3071,34 +2537,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.670000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>12.50000000000004</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.010000000000002</v>
+        <v>5.99</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>6.003500000000003</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5.991333333333327</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,34 +2578,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-21.73913043478257</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.000000000000003</v>
+        <v>5.99</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>5.998000000000003</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5.985333333333327</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,34 +2619,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>6.666666666666686</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6.004000000000003</v>
+        <v>5.99</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>5.999500000000003</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5.983999999999993</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,34 +2660,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>6.666666666666686</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6.008000000000004</v>
+        <v>5.99</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>6.005500000000003</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5.983333333333325</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,34 +2701,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6.012000000000005</v>
+        <v>5.99</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>6.006000000000003</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.987666666666659</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,34 +2742,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6.012000000000006</v>
+        <v>5.99</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>6.008000000000004</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.988999999999992</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,34 +2783,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>6.012000000000006</v>
+        <v>5.99</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>6.010000000000003</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.993999999999992</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,34 +2824,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6.012000000000006</v>
+        <v>5.99</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>6.012000000000004</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.999333333333325</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,34 +2865,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>3.448275862068902</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6.027000000000006</v>
+        <v>5.99</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>6.014500000000004</v>
-      </c>
-      <c r="N63" t="n">
-        <v>6.004999999999993</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,34 +2906,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>3.448275862068902</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.028000000000007</v>
+        <v>5.99</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>6.017000000000004</v>
-      </c>
-      <c r="N64" t="n">
-        <v>6.008999999999992</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,34 +2947,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6.029000000000007</v>
+        <v>5.99</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>6.019500000000003</v>
-      </c>
-      <c r="N65" t="n">
-        <v>6.011999999999992</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,34 +2988,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6.044000000000008</v>
+        <v>5.99</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>6.022000000000004</v>
-      </c>
-      <c r="N66" t="n">
-        <v>6.013333333333327</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,34 +3029,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.045000000000008</v>
+        <v>5.99</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>6.024500000000003</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6.014666666666661</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,34 +3070,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6.046000000000008</v>
+        <v>5.99</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>6.027000000000003</v>
-      </c>
-      <c r="N68" t="n">
-        <v>6.018999999999995</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3869,34 +3111,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>6.047000000000009</v>
+        <v>5.99</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>6.029500000000003</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6.019666666666662</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,34 +3152,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.04800000000001</v>
+        <v>5.99</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>6.030000000000003</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6.021333333333329</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,35 +3193,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.04900000000001</v>
+        <v>5.99</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>6.030500000000002</v>
-      </c>
-      <c r="N71" t="n">
-        <v>6.022999999999996</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S71" t="n">
-        <v>0.9966556291390728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4040,26 +3234,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>6.05000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>6.031000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>6.024666666666663</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,26 +3275,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>6.050000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>6.038500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>6.02633333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,26 +3316,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>6.050000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>6.039000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>6.027999999999997</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,26 +3357,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>6.050000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>6.0395</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6.029666666666665</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,26 +3398,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>6.050000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="N76" t="n">
-        <v>6.031333333333332</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,26 +3439,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>6.050000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>6.047499999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>6.032999999999999</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,28 +3480,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.049000000000012</v>
+        <v>5.99</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>6.047499999999999</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6.034333333333332</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,28 +3521,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L79" t="n">
-        <v>6.033000000000013</v>
+        <v>5.99</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>6.039999999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6.030666666666664</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,28 +3562,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-3.22580645161283</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.032000000000013</v>
+        <v>5.99</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>6.039999999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>6.030666666666664</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4487,28 +3603,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>-3.22580645161283</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.031000000000015</v>
+        <v>5.99</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>6.039999999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6.030666666666664</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,28 +3644,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.290000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-9.09090909090914</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.028000000000015</v>
+        <v>5.99</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>6.038999999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>6.029999999999998</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,28 +3685,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-5.882352941176317</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6.026000000000015</v>
+        <v>5.99</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>6.037999999999998</v>
-      </c>
-      <c r="N83" t="n">
-        <v>6.034333333333332</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,28 +3726,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-5.882352941176317</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.024000000000015</v>
+        <v>5.99</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>6.036999999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>6.033999999999998</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,29 +3767,19 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.310000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-2.857142857142784</v>
-      </c>
-      <c r="L85" t="n">
-        <v>6.023000000000016</v>
+        <v>5.99</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>6.036499999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>6.033999999999998</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
-        <v>1</v>
+        <v>1.003347245409015</v>
       </c>
     </row>
     <row r="86">
@@ -4742,28 +3808,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1100000000000003</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.310000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-2.857142857142784</v>
-      </c>
-      <c r="L86" t="n">
-        <v>6.022000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>6.036</v>
-      </c>
-      <c r="N86" t="n">
-        <v>6.038666666666665</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,28 +3843,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.460000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-30.61224489795913</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.006000000000017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>6.028</v>
-      </c>
-      <c r="N87" t="n">
-        <v>6.033666666666664</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,28 +3878,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.600000000000002</v>
-      </c>
-      <c r="K88" t="n">
-        <v>29.16666666666665</v>
-      </c>
-      <c r="L88" t="n">
-        <v>6.005000000000018</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>6.027</v>
-      </c>
-      <c r="N88" t="n">
-        <v>6.033333333333331</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4895,28 +3913,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.600000000000002</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-3.030303030302949</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6.019000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>6.026000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>6.032999999999999</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,28 +3948,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-5.882352941176562</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6.017000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>6.024500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6.032333333333332</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,28 +3983,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.015000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>6.023000000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>6.031666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,28 +4018,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-3.225806451613106</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.015000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>6.021500000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>6.031000000000001</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5099,28 +4053,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.610000000000003</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-3.225806451613106</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.014000000000017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="N93" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,28 +4088,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.620000000000003</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-9.677419354838747</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.012000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>6.018000000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>6.028666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5201,28 +4123,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.620000000000003</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-9.677419354838747</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.009000000000018</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>6.016000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>6.027333333333332</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,28 +4158,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.620000000000003</v>
-      </c>
-      <c r="K96" t="n">
-        <v>74.99999999999959</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.006000000000018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>6.014000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>6.025999999999998</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5303,28 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.740000000000003</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.006000000000017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>6.006000000000002</v>
-      </c>
-      <c r="N97" t="n">
-        <v>6.020666666666664</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,28 +4228,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2.860000000000003</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-7.69230769230785</v>
-      </c>
-      <c r="L98" t="n">
-        <v>6.004000000000017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>6.004500000000002</v>
-      </c>
-      <c r="N98" t="n">
-        <v>6.01933333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5405,28 +4263,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3.000000000000003</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5.988000000000018</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>6.003500000000002</v>
-      </c>
-      <c r="N99" t="n">
-        <v>6.01333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,28 +4298,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.000000000000003</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5.973000000000019</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>5.995000000000002</v>
-      </c>
-      <c r="N100" t="n">
-        <v>6.00733333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,28 +4333,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.130000000000003</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-3.846153846153767</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.97100000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>5.993000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>6.005666666666662</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,28 +4368,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.150000000000002</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-7.407407407407261</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5.96700000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>5.991000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>6.003333333333329</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,28 +4403,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.150000000000002</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-5.660377358490452</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5.963000000000021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>5.988500000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>6.000999999999994</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,28 +4438,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.150000000000002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-5.660377358490452</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5.960000000000021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>5.986000000000002</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5.998666666666661</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,28 +4473,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05000000000000071</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.150000000000002</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-5.660377358490452</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5.957000000000021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>5.983000000000002</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5.996333333333326</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,28 +4508,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3.260000000000002</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-3.846153846153767</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5.943000000000021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>5.974500000000002</v>
-      </c>
-      <c r="N106" t="n">
-        <v>5.990333333333326</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,28 +4543,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3.360000000000002</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-8.000000000000021</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5.951000000000022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>5.978500000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>5.987666666666659</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,31 +4575,19 @@
         <v>6.009833333333348</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>3.360000000000002</v>
+        <v>5.97</v>
       </c>
       <c r="K108" t="n">
-        <v>27.77777777777772</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.947000000000022</v>
-      </c>
+        <v>5.97</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>5.975500000000002</v>
-      </c>
-      <c r="N108" t="n">
-        <v>5.985333333333326</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,31 +4614,23 @@
         <v>6.009333333333348</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>3.360000000000002</v>
+        <v>5.87</v>
       </c>
       <c r="K109" t="n">
-        <v>27.77777777777772</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.957000000000023</v>
+        <v>5.97</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>5.972500000000002</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5.987999999999993</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,31 +4657,23 @@
         <v>6.008166666666682</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.360000000000002</v>
+        <v>5.97</v>
       </c>
       <c r="K110" t="n">
-        <v>-13.0434782608697</v>
-      </c>
-      <c r="L110" t="n">
-        <v>5.967000000000024</v>
+        <v>5.97</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>5.970000000000002</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5.98566666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,31 +4700,23 @@
         <v>6.006500000000015</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.390000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="K111" t="n">
-        <v>-16.66666666666673</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5.961000000000024</v>
+        <v>5.97</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>5.966000000000002</v>
-      </c>
-      <c r="N111" t="n">
-        <v>5.982333333333327</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,1102 +4743,23 @@
         <v>6.004833333333348</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>3.390000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.66666666666673</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5.957000000000024</v>
+        <v>5.97</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>5.962000000000002</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5.97966666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2101.2012</v>
-      </c>
-      <c r="G113" t="n">
-        <v>6.005500000000015</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.390000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-16.66666666666673</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.953000000000022</v>
-      </c>
-      <c r="M113" t="n">
-        <v>5.958000000000002</v>
-      </c>
-      <c r="N113" t="n">
-        <v>5.976666666666659</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D114" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2776.448</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6.004000000000015</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-12.00000000000014</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5.950000000000022</v>
-      </c>
-      <c r="M114" t="n">
-        <v>5.955000000000002</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5.973999999999992</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F115" t="n">
-        <v>13498.1193</v>
-      </c>
-      <c r="G115" t="n">
-        <v>6.002833333333347</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>62.50000000000042</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.949000000000022</v>
-      </c>
-      <c r="M115" t="n">
-        <v>5.953000000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5.97166666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F116" t="n">
-        <v>689.3031</v>
-      </c>
-      <c r="G116" t="n">
-        <v>6.004000000000016</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.959000000000023</v>
-      </c>
-      <c r="M116" t="n">
-        <v>5.951000000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5.969333333333326</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F117" t="n">
-        <v>7410.1698</v>
-      </c>
-      <c r="G117" t="n">
-        <v>6.002833333333348</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5.959000000000023</v>
-      </c>
-      <c r="M117" t="n">
-        <v>5.955000000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5.971999999999993</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F118" t="n">
-        <v>266.6664</v>
-      </c>
-      <c r="G118" t="n">
-        <v>6.001666666666682</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5.959000000000023</v>
-      </c>
-      <c r="M118" t="n">
-        <v>5.953000000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5.969999999999994</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F119" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.000500000000016</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5.959000000000023</v>
-      </c>
-      <c r="M119" t="n">
-        <v>5.958</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5.967999999999993</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F120" t="n">
-        <v>311.1108</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5.999333333333349</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.420000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>100</v>
-      </c>
-      <c r="L120" t="n">
-        <v>5.959000000000023</v>
-      </c>
-      <c r="M120" t="n">
-        <v>5.963</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5.966333333333326</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F121" t="n">
-        <v>9698.5355</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5.996500000000015</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-53.84615384615448</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5.952000000000024</v>
-      </c>
-      <c r="M121" t="n">
-        <v>5.9565</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5.961333333333326</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5.995333333333349</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K122" t="n">
-        <v>13.04347826086937</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5.955000000000024</v>
-      </c>
-      <c r="M122" t="n">
-        <v>5.956</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5.959666666666659</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F123" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G123" t="n">
-        <v>5.994000000000016</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.958000000000024</v>
-      </c>
-      <c r="M123" t="n">
-        <v>5.9555</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5.957999999999992</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F124" t="n">
-        <v>922.3344</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5.992666666666683</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M124" t="n">
-        <v>5.955</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5.956666666666659</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F125" t="n">
-        <v>800</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5.991333333333349</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M125" t="n">
-        <v>5.954499999999999</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5.955333333333326</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5.990000000000017</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M126" t="n">
-        <v>5.959499999999999</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5.953999999999993</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F127" t="n">
-        <v>300</v>
-      </c>
-      <c r="G127" t="n">
-        <v>5.988666666666684</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M127" t="n">
-        <v>5.959499999999999</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.95666666666666</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F128" t="n">
-        <v>700</v>
-      </c>
-      <c r="G128" t="n">
-        <v>5.987333333333351</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M128" t="n">
-        <v>5.959499999999999</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5.955333333333327</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F129" t="n">
-        <v>200</v>
-      </c>
-      <c r="G129" t="n">
-        <v>5.986000000000018</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5.960000000000024</v>
-      </c>
-      <c r="M129" t="n">
-        <v>5.959499999999999</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5.95866666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F130" t="n">
-        <v>23025.752</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5.983000000000017</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5.950000000000024</v>
-      </c>
-      <c r="M130" t="n">
-        <v>5.954499999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5.95866666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F131" t="n">
-        <v>20</v>
-      </c>
-      <c r="G131" t="n">
-        <v>5.981500000000016</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.959000000000024</v>
-      </c>
-      <c r="M131" t="n">
-        <v>5.955499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5.957333333333326</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F132" t="n">
-        <v>200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>5.980000000000016</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5.958000000000024</v>
-      </c>
-      <c r="M132" t="n">
-        <v>5.956499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5.956666666666661</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F133" t="n">
-        <v>67464.2739</v>
-      </c>
-      <c r="G133" t="n">
-        <v>5.978500000000015</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5.957000000000024</v>
-      </c>
-      <c r="M133" t="n">
-        <v>5.957499999999999</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5.955999999999994</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -1011,17 +1011,13 @@
         <v>6.022000000000006</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1056,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1097,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1138,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1179,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1220,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1261,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1302,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1343,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1384,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1425,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1463,17 +1399,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1671,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1706,22 +1606,14 @@
         <v>6.018833333333339</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1749,22 +1641,14 @@
         <v>6.018666666666673</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1792,22 +1676,14 @@
         <v>6.017666666666672</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1841,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1882,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1917,22 +1781,14 @@
         <v>6.013333333333339</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1966,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2007,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2048,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2130,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2253,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2335,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2417,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2452,18 +2236,18 @@
         <v>5.999000000000009</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J53" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2493,15 +2277,15 @@
         <v>5.998833333333343</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J54" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2581,9 +2363,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,9 +2402,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,15 +2435,15 @@
         <v>5.99950000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J58" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2698,15 +2476,15 @@
         <v>6.001166666666677</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="J59" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2523,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,9 +2562,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,9 +2601,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,9 +2640,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,9 +2679,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2991,9 +2757,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,9 +2796,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,9 +2835,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,9 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,9 +2913,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,9 +2952,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,9 +2991,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3069,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3442,9 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,9 +3225,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,9 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,9 +3303,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3381,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,9 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3767,19 +3495,17 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1.003347245409015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3812,7 +3538,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +3573,15 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3878,11 +3612,15 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3917,7 +3655,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3952,7 +3694,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3987,7 +3733,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4022,7 +3772,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +3807,15 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4092,7 +3850,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4123,11 +3885,15 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +3928,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4193,11 +3963,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4228,11 +4002,15 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4263,11 +4041,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4298,11 +4080,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +4119,15 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4372,7 +4162,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4407,7 +4201,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4442,7 +4240,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4477,7 +4279,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4512,7 +4318,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4357,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4575,18 +4389,18 @@
         <v>6.009833333333348</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4614,20 +4428,16 @@
         <v>6.009333333333348</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -4657,17 +4467,13 @@
         <v>6.008166666666682</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,17 +4506,13 @@
         <v>6.006500000000015</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,17 +4545,13 @@
         <v>6.004833333333348</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="C2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="D2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="E2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>4380.228</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>6.034666666666669</v>
+        <v>6.037833333333336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>4380.228</v>
       </c>
       <c r="G3" t="n">
-        <v>6.034833333333336</v>
+        <v>6.034666666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>3515.0667</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>6.03316666666667</v>
+        <v>6.034833333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="C5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="D5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="E5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="F5" t="n">
-        <v>3510.0586</v>
+        <v>3515.0667</v>
       </c>
       <c r="G5" t="n">
-        <v>6.03066666666667</v>
+        <v>6.03316666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="C6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="D6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="E6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3510.0586</v>
       </c>
       <c r="G6" t="n">
-        <v>6.028833333333337</v>
+        <v>6.03066666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.9</v>
+        <v>5.98</v>
       </c>
       <c r="C7" t="n">
         <v>5.98</v>
@@ -617,13 +617,13 @@
         <v>5.98</v>
       </c>
       <c r="E7" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="F7" t="n">
-        <v>42268.6811</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>6.027000000000005</v>
+        <v>6.028833333333337</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.98</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E8" t="n">
         <v>5.89</v>
       </c>
       <c r="F8" t="n">
-        <v>106048.1539</v>
+        <v>42268.6811</v>
       </c>
       <c r="G8" t="n">
-        <v>6.025500000000005</v>
+        <v>6.027000000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C9" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="F9" t="n">
-        <v>192532.912</v>
+        <v>106048.1539</v>
       </c>
       <c r="G9" t="n">
-        <v>6.025166666666673</v>
+        <v>6.025500000000005</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D10" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E10" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>192532.912</v>
       </c>
       <c r="G10" t="n">
-        <v>6.028666666666672</v>
+        <v>6.025166666666673</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="C11" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D11" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E11" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="F11" t="n">
-        <v>12818.1366</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>6.029833333333339</v>
+        <v>6.028666666666672</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="C12" t="n">
         <v>5.99</v>
@@ -792,13 +792,13 @@
         <v>5.99</v>
       </c>
       <c r="E12" t="n">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>12818.1366</v>
       </c>
       <c r="G12" t="n">
-        <v>6.031166666666672</v>
+        <v>6.029833333333339</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="C13" t="n">
         <v>5.99</v>
@@ -827,13 +827,13 @@
         <v>5.99</v>
       </c>
       <c r="E13" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F13" t="n">
-        <v>54729.0376</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>6.029833333333339</v>
+        <v>6.031166666666672</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C14" t="n">
         <v>5.99</v>
@@ -865,10 +865,10 @@
         <v>5.92</v>
       </c>
       <c r="F14" t="n">
-        <v>16405.3369</v>
+        <v>54729.0376</v>
       </c>
       <c r="G14" t="n">
-        <v>6.028500000000006</v>
+        <v>6.029833333333339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="C15" t="n">
         <v>5.99</v>
@@ -897,13 +897,13 @@
         <v>5.99</v>
       </c>
       <c r="E15" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>16405.3369</v>
       </c>
       <c r="G15" t="n">
-        <v>6.027166666666672</v>
+        <v>6.028500000000006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="C16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="D16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="E16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F16" t="n">
-        <v>68131.69500000001</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>6.024666666666673</v>
+        <v>6.027166666666672</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="C17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="D17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="E17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>68131.69500000001</v>
       </c>
       <c r="G17" t="n">
-        <v>6.02333333333334</v>
+        <v>6.024666666666673</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>5.99</v>
       </c>
       <c r="F18" t="n">
-        <v>12437.1366</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>6.022000000000006</v>
+        <v>6.02333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.06</v>
+        <v>5.99</v>
       </c>
       <c r="C19" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D19" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="E19" t="n">
-        <v>6.06</v>
+        <v>5.99</v>
       </c>
       <c r="F19" t="n">
-        <v>127.5986</v>
+        <v>12437.1366</v>
       </c>
       <c r="G19" t="n">
-        <v>6.022166666666673</v>
+        <v>6.022000000000006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="C20" t="n">
         <v>6.08</v>
@@ -1072,13 +1072,13 @@
         <v>6.08</v>
       </c>
       <c r="E20" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="F20" t="n">
-        <v>219.95</v>
+        <v>127.5986</v>
       </c>
       <c r="G20" t="n">
-        <v>6.022333333333339</v>
+        <v>6.022166666666673</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>6.08</v>
       </c>
       <c r="E21" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>219.95</v>
       </c>
       <c r="G21" t="n">
-        <v>6.022500000000006</v>
+        <v>6.022333333333339</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.08</v>
       </c>
       <c r="F22" t="n">
-        <v>88.8888</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>6.022666666666672</v>
+        <v>6.022500000000006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>88.8888</v>
       </c>
       <c r="G23" t="n">
-        <v>6.025166666666673</v>
+        <v>6.022666666666672</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C24" t="n">
         <v>6.08</v>
@@ -1212,13 +1212,13 @@
         <v>6.08</v>
       </c>
       <c r="E24" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F24" t="n">
-        <v>519.4443</v>
+        <v>88.8888</v>
       </c>
       <c r="G24" t="n">
-        <v>6.027666666666672</v>
+        <v>6.025166666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="C25" t="n">
         <v>6.08</v>
@@ -1247,13 +1247,13 @@
         <v>6.08</v>
       </c>
       <c r="E25" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="F25" t="n">
-        <v>350.62</v>
+        <v>519.4443</v>
       </c>
       <c r="G25" t="n">
-        <v>6.027833333333338</v>
+        <v>6.027666666666672</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>6.08</v>
       </c>
       <c r="F26" t="n">
-        <v>24.671</v>
+        <v>350.62</v>
       </c>
       <c r="G26" t="n">
-        <v>6.030333333333338</v>
+        <v>6.027833333333338</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>6.08</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>24.671</v>
       </c>
       <c r="G27" t="n">
-        <v>6.030500000000004</v>
+        <v>6.030333333333338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="C28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="D28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="E28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="F28" t="n">
-        <v>10750</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>6.030166666666672</v>
+        <v>6.030500000000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="C29" t="n">
-        <v>5.91</v>
+        <v>6.06</v>
       </c>
       <c r="D29" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>6.06</v>
       </c>
       <c r="F29" t="n">
-        <v>219526.2546</v>
+        <v>10750</v>
       </c>
       <c r="G29" t="n">
-        <v>6.030000000000005</v>
+        <v>6.030166666666672</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>219526.2546</v>
       </c>
       <c r="G30" t="n">
-        <v>6.028666666666672</v>
+        <v>6.030000000000005</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>522788.8656</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>6.025500000000005</v>
+        <v>6.028666666666672</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="C32" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D32" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="E32" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="F32" t="n">
-        <v>270869.3757</v>
+        <v>522788.8656</v>
       </c>
       <c r="G32" t="n">
-        <v>6.022166666666672</v>
+        <v>6.025500000000005</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="C33" t="n">
         <v>5.88</v>
       </c>
       <c r="D33" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="E33" t="n">
         <v>5.88</v>
       </c>
       <c r="F33" t="n">
-        <v>20732.6301</v>
+        <v>270869.3757</v>
       </c>
       <c r="G33" t="n">
-        <v>6.021333333333339</v>
+        <v>6.022166666666672</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="C34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>20732.6301</v>
       </c>
       <c r="G34" t="n">
-        <v>6.019833333333339</v>
+        <v>6.021333333333339</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="C35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="D35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="E35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>6.018833333333339</v>
+        <v>6.019833333333339</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="C36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="D36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="E36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>6.018666666666673</v>
+        <v>6.018833333333339</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>6.017666666666672</v>
+        <v>6.018666666666673</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="C38" t="n">
-        <v>5.92</v>
+        <v>6.01</v>
       </c>
       <c r="D38" t="n">
-        <v>5.92</v>
+        <v>6.01</v>
       </c>
       <c r="E38" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="F38" t="n">
-        <v>1733.4512</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>6.015166666666673</v>
+        <v>6.017666666666672</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="C39" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="D39" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="E39" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>1733.4512</v>
       </c>
       <c r="G39" t="n">
-        <v>6.014500000000006</v>
+        <v>6.015166666666673</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.88</v>
+        <v>6.03</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E40" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="F40" t="n">
-        <v>342813.5931</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>6.013333333333339</v>
+        <v>6.014500000000006</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>5.88</v>
       </c>
       <c r="C41" t="n">
         <v>6</v>
@@ -1807,13 +1807,13 @@
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>342813.5931</v>
       </c>
       <c r="G41" t="n">
-        <v>6.012000000000006</v>
+        <v>6.013333333333339</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.87</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
@@ -1842,13 +1842,13 @@
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>5.87</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>82522.1237</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>6.010666666666673</v>
+        <v>6.012000000000006</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="C43" t="n">
         <v>6</v>
@@ -1877,13 +1877,13 @@
         <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F43" t="n">
-        <v>1400</v>
+        <v>82522.1237</v>
       </c>
       <c r="G43" t="n">
-        <v>6.00933333333334</v>
+        <v>6.010666666666673</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>6093.8833</v>
+        <v>1400</v>
       </c>
       <c r="G44" t="n">
-        <v>6.008000000000007</v>
+        <v>6.00933333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>6093.8833</v>
       </c>
       <c r="G45" t="n">
-        <v>6.006666666666674</v>
+        <v>6.008000000000007</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>6.005333333333341</v>
+        <v>6.006666666666674</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>3883.7499</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>6.004000000000008</v>
+        <v>6.005333333333341</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>4823.6369</v>
+        <v>3883.7499</v>
       </c>
       <c r="G48" t="n">
-        <v>6.002666666666674</v>
+        <v>6.004000000000008</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>1557.3333</v>
+        <v>4823.6369</v>
       </c>
       <c r="G49" t="n">
-        <v>6.001333333333341</v>
+        <v>6.002666666666674</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>21242.6673</v>
+        <v>1557.3333</v>
       </c>
       <c r="G50" t="n">
-        <v>6.000666666666675</v>
+        <v>6.001333333333341</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>6.04</v>
@@ -2157,13 +2157,13 @@
         <v>6.04</v>
       </c>
       <c r="E51" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>21242.6673</v>
       </c>
       <c r="G51" t="n">
-        <v>6.00000000000001</v>
+        <v>6.000666666666675</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>6.04</v>
       </c>
       <c r="F52" t="n">
-        <v>4800</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="n">
-        <v>6.001833333333343</v>
+        <v>6.00000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,1874 +2221,1684 @@
         <v>6.04</v>
       </c>
       <c r="C53" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.001833333333343</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C54" t="n">
         <v>5.9</v>
       </c>
-      <c r="D53" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D54" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E54" t="n">
         <v>5.9</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" t="n">
         <v>7282.9845</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G54" t="n">
         <v>5.999000000000009</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3799.3508</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.998833333333343</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20900</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.998666666666677</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1856.1899</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.996166666666676</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.998166666666676</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.99950000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.001166666666677</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F61" t="n">
+        <v>759.437</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6.003000000000011</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F62" t="n">
+        <v>884.7529</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.003500000000011</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2224.31</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.005333333333344</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4786.69</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.006166666666678</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F65" t="n">
+        <v>200</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.007166666666678</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F66" t="n">
+        <v>689.0611</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.009166666666678</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.010333333333345</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F68" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.011500000000011</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>43926.6115</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6.012333333333345</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.012000000000012</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>73.9225</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.011500000000012</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.012500000000013</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3776</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.013500000000012</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F74" t="n">
+        <v>200</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6.014500000000012</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.015500000000013</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6.016500000000012</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6.018666666666679</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.019666666666679</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1811.4238</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.020500000000013</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F80" t="n">
+        <v>772.2033</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6.017333333333346</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6.01666666666668</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5653.8079</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6.016000000000014</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6.015000000000014</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F84" t="n">
+        <v>851.6652</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6.01416666666668</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3472.9085</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6.013333333333347</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2586.6428</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.01266666666668</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F87" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6.012000000000015</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F88" t="n">
+        <v>43816.7949</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6.008833333333348</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.008333333333348</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5612.7164</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6.010333333333347</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6.01066666666668</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.012833333333346</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.015166666666679</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F94" t="n">
+        <v>41097.5744</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.017500000000013</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1093.677204658902</v>
+      </c>
+      <c r="G95" t="n">
+        <v>6.018833333333346</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9029.242899999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6.019666666666679</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.019666666666679</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F98" t="n">
+        <v>11565.5761</v>
+      </c>
+      <c r="G98" t="n">
+        <v>6.017666666666679</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6.019166666666679</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F100" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.016500000000012</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D54" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3799.3508</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5.998833333333343</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D55" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F55" t="n">
-        <v>20900</v>
-      </c>
-      <c r="G55" t="n">
-        <v>5.998666666666677</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1856.1899</v>
-      </c>
-      <c r="G56" t="n">
-        <v>5.996166666666676</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F57" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5.998166666666676</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F58" t="n">
-        <v>100</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5.99950000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F59" t="n">
-        <v>100</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.001166666666677</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C60" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F60" t="n">
-        <v>759.437</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6.003000000000011</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F61" t="n">
-        <v>884.7529</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6.003500000000011</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2224.31</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6.005333333333344</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4786.69</v>
-      </c>
-      <c r="G63" t="n">
-        <v>6.006166666666678</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C64" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D64" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F64" t="n">
-        <v>200</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.007166666666678</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F65" t="n">
-        <v>689.0611</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6.009166666666678</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F66" t="n">
-        <v>100</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6.010333333333345</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F67" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G67" t="n">
-        <v>6.011500000000011</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C68" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F68" t="n">
-        <v>43926.6115</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6.012333333333345</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C69" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D69" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F69" t="n">
-        <v>10</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6.012000000000012</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E70" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F70" t="n">
-        <v>73.9225</v>
-      </c>
-      <c r="G70" t="n">
-        <v>6.011500000000012</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C71" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E71" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>6.012500000000013</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D72" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3776</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6.013500000000012</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F73" t="n">
-        <v>200</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6.014500000000012</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C74" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6.015500000000013</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C75" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100</v>
-      </c>
-      <c r="G75" t="n">
-        <v>6.016500000000012</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C76" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D76" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100</v>
-      </c>
-      <c r="G76" t="n">
-        <v>6.018666666666679</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D77" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E77" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G77" t="n">
-        <v>6.019666666666679</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D78" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1811.4238</v>
-      </c>
-      <c r="G78" t="n">
-        <v>6.020500000000013</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E79" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F79" t="n">
-        <v>772.2033</v>
-      </c>
-      <c r="G79" t="n">
-        <v>6.017333333333346</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="n">
-        <v>6.01666666666668</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5653.8079</v>
-      </c>
-      <c r="G81" t="n">
-        <v>6.016000000000014</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C82" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F82" t="n">
-        <v>20</v>
-      </c>
-      <c r="G82" t="n">
-        <v>6.015000000000014</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C83" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E83" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F83" t="n">
-        <v>851.6652</v>
-      </c>
-      <c r="G83" t="n">
-        <v>6.01416666666668</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E84" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3472.9085</v>
-      </c>
-      <c r="G84" t="n">
-        <v>6.013333333333347</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C85" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2586.6428</v>
-      </c>
-      <c r="G85" t="n">
-        <v>6.01266666666668</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C86" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D86" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F86" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G86" t="n">
-        <v>6.012000000000015</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F87" t="n">
-        <v>43816.7949</v>
-      </c>
-      <c r="G87" t="n">
-        <v>6.008833333333348</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C88" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10</v>
-      </c>
-      <c r="G88" t="n">
-        <v>6.008333333333348</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5612.7164</v>
-      </c>
-      <c r="G89" t="n">
-        <v>6.010333333333347</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F90" t="n">
-        <v>100</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6.01066666666668</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C91" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F91" t="n">
-        <v>100</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6.012833333333346</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C92" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D92" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F92" t="n">
-        <v>100</v>
-      </c>
-      <c r="G92" t="n">
-        <v>6.015166666666679</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C93" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D93" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E93" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F93" t="n">
-        <v>41097.5744</v>
-      </c>
-      <c r="G93" t="n">
-        <v>6.017500000000013</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1093.677204658902</v>
-      </c>
-      <c r="G94" t="n">
-        <v>6.018833333333346</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9029.242899999999</v>
-      </c>
-      <c r="G95" t="n">
-        <v>6.019666666666679</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F96" t="n">
-        <v>100</v>
-      </c>
-      <c r="G96" t="n">
-        <v>6.019666666666679</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11565.5761</v>
-      </c>
-      <c r="G97" t="n">
-        <v>6.017666666666679</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10</v>
-      </c>
-      <c r="G98" t="n">
-        <v>6.019166666666679</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C99" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D99" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F99" t="n">
-        <v>850000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>6.016500000000012</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>6</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F100" t="n">
-        <v>22686.7712</v>
-      </c>
-      <c r="G100" t="n">
-        <v>6.014333333333346</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4101,16 +3911,16 @@
         <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>22686.7712</v>
       </c>
       <c r="G101" t="n">
         <v>6.014333333333346</v>
@@ -4122,7 +3932,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>5649.8513</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>6.014000000000013</v>
+        <v>6.014333333333346</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4161,7 +3973,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +3990,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C103" t="n">
         <v>5.98</v>
@@ -4185,13 +3999,13 @@
         <v>5.98</v>
       </c>
       <c r="E103" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F103" t="n">
-        <v>4955.9512</v>
+        <v>5649.8513</v>
       </c>
       <c r="G103" t="n">
-        <v>6.01366666666668</v>
+        <v>6.014000000000013</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4200,7 +4014,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +4031,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="C104" t="n">
         <v>5.98</v>
@@ -4224,13 +4040,13 @@
         <v>5.98</v>
       </c>
       <c r="E104" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>4955.9512</v>
       </c>
       <c r="G104" t="n">
-        <v>6.013333333333347</v>
+        <v>6.01366666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4239,7 +4055,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,10 +4084,10 @@
         <v>5.98</v>
       </c>
       <c r="F105" t="n">
-        <v>4979</v>
+        <v>10000</v>
       </c>
       <c r="G105" t="n">
-        <v>6.013000000000014</v>
+        <v>6.013333333333347</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4278,7 +4096,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,22 +4113,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="C106" t="n">
-        <v>5.87</v>
+        <v>5.98</v>
       </c>
       <c r="D106" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="E106" t="n">
-        <v>5.87</v>
+        <v>5.98</v>
       </c>
       <c r="F106" t="n">
-        <v>25584.1689</v>
+        <v>4979</v>
       </c>
       <c r="G106" t="n">
-        <v>6.010833333333347</v>
+        <v>6.013000000000014</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4317,7 +4137,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,22 +4154,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="C107" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="D107" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="E107" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>25584.1689</v>
       </c>
       <c r="G107" t="n">
-        <v>6.010333333333348</v>
+        <v>6.010833333333347</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4356,7 +4178,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>6.009833333333348</v>
+        <v>6.010333333333348</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4395,7 +4219,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,7 +4236,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.87</v>
+        <v>5.97</v>
       </c>
       <c r="C109" t="n">
         <v>5.97</v>
@@ -4419,13 +4245,13 @@
         <v>5.97</v>
       </c>
       <c r="E109" t="n">
-        <v>5.87</v>
+        <v>5.97</v>
       </c>
       <c r="F109" t="n">
-        <v>77.4496</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>6.009333333333348</v>
+        <v>6.009833333333348</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4434,7 +4260,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,7 +4277,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="C110" t="n">
         <v>5.97</v>
@@ -4458,13 +4286,13 @@
         <v>5.97</v>
       </c>
       <c r="E110" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="F110" t="n">
-        <v>194.9748743718593</v>
+        <v>77.4496</v>
       </c>
       <c r="G110" t="n">
-        <v>6.008166666666682</v>
+        <v>6.009333333333348</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4473,7 +4301,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,22 +4318,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="C111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="D111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="E111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="F111" t="n">
-        <v>168.3501</v>
+        <v>194.9748743718593</v>
       </c>
       <c r="G111" t="n">
-        <v>6.006500000000015</v>
+        <v>6.008166666666682</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4512,7 +4342,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,10 +4371,10 @@
         <v>5.94</v>
       </c>
       <c r="F112" t="n">
-        <v>150</v>
+        <v>168.3501</v>
       </c>
       <c r="G112" t="n">
-        <v>6.004833333333348</v>
+        <v>6.006500000000015</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4551,7 +4383,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.89</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,6 +4395,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F113" t="n">
+        <v>150</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.004833333333348</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>6.02066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.037833333333336</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4380.228</v>
       </c>
       <c r="G3" t="n">
+        <v>6.01066666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.034666666666669</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>6.005333333333327</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.034833333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3515.0667</v>
       </c>
       <c r="G5" t="n">
+        <v>5.999333333333326</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.03316666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3510.0586</v>
       </c>
       <c r="G6" t="n">
+        <v>5.989333333333327</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.03066666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>5.982666666666661</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.028833333333337</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>42268.6811</v>
       </c>
       <c r="G8" t="n">
+        <v>5.985999999999994</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.027000000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>106048.1539</v>
       </c>
       <c r="G9" t="n">
+        <v>5.981333333333327</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.025500000000005</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>192532.912</v>
       </c>
       <c r="G10" t="n">
+        <v>5.982666666666661</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.025166666666673</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>5.98466666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.028666666666672</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>12818.1366</v>
       </c>
       <c r="G12" t="n">
+        <v>5.980666666666661</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.029833333333339</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>5.985333333333327</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.031166666666672</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>54729.0376</v>
       </c>
       <c r="G14" t="n">
+        <v>5.987333333333327</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.029833333333339</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>16405.3369</v>
       </c>
       <c r="G15" t="n">
+        <v>5.99066666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.028500000000006</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
+        <v>5.99466666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.027166666666672</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>68131.69500000001</v>
       </c>
       <c r="G17" t="n">
+        <v>5.98866666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.024666666666673</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
+        <v>5.99266666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.02333333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>12437.1366</v>
       </c>
       <c r="G19" t="n">
+        <v>5.991999999999993</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.022000000000006</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>127.5986</v>
       </c>
       <c r="G20" t="n">
+        <v>5.997999999999993</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.022166666666673</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>219.95</v>
       </c>
       <c r="G21" t="n">
+        <v>6.007999999999993</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.022333333333339</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
+        <v>6.014666666666659</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.022500000000006</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>88.8888</v>
       </c>
       <c r="G23" t="n">
+        <v>6.021333333333326</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.022666666666672</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>88.8888</v>
       </c>
       <c r="G24" t="n">
+        <v>6.026666666666658</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.025166666666673</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>519.4443</v>
       </c>
       <c r="G25" t="n">
+        <v>6.027333333333326</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.027666666666672</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>350.62</v>
       </c>
       <c r="G26" t="n">
+        <v>6.027333333333326</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.027833333333338</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>24.671</v>
       </c>
       <c r="G27" t="n">
+        <v>6.033333333333326</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.030333333333338</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>6.039333333333326</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.030500000000004</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10750</v>
       </c>
       <c r="G29" t="n">
+        <v>6.043999999999993</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.030166666666672</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>219526.2546</v>
       </c>
       <c r="G30" t="n">
+        <v>6.03866666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.030000000000005</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
+        <v>6.039333333333327</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.028666666666672</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>522788.8656</v>
       </c>
       <c r="G32" t="n">
+        <v>6.037333333333327</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.025500000000005</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>270869.3757</v>
       </c>
       <c r="G33" t="n">
+        <v>6.029999999999993</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.022166666666672</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>20732.6301</v>
       </c>
       <c r="G34" t="n">
+        <v>6.022666666666661</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.021333333333339</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
+        <v>6.01266666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.019833333333339</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
+        <v>6.00466666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.018833333333339</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>5.999999999999994</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.018666666666673</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
+        <v>5.995333333333327</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.017666666666672</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1733.4512</v>
       </c>
       <c r="G39" t="n">
+        <v>5.98466666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.015166666666673</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
+        <v>5.981333333333327</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.014500000000006</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>342813.5931</v>
       </c>
       <c r="G41" t="n">
+        <v>5.975999999999995</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.013333333333339</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>100</v>
       </c>
       <c r="G42" t="n">
+        <v>5.970666666666661</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.012000000000006</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>82522.1237</v>
       </c>
       <c r="G43" t="n">
+        <v>5.965333333333328</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.010666666666673</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1400</v>
       </c>
       <c r="G44" t="n">
+        <v>5.961333333333328</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.00933333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>6093.8833</v>
       </c>
       <c r="G45" t="n">
+        <v>5.967333333333328</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.008000000000007</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
+        <v>5.967333333333328</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.006666666666674</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>200</v>
       </c>
       <c r="G47" t="n">
+        <v>5.974666666666661</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.005333333333341</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>3883.7499</v>
       </c>
       <c r="G48" t="n">
+        <v>5.982666666666661</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.004000000000008</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>4823.6369</v>
       </c>
       <c r="G49" t="n">
+        <v>5.990666666666661</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.002666666666674</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1557.3333</v>
       </c>
       <c r="G50" t="n">
+        <v>5.995333333333329</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.001333333333341</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>21242.6673</v>
       </c>
       <c r="G51" t="n">
+        <v>6.000666666666662</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.000666666666675</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1100</v>
       </c>
       <c r="G52" t="n">
+        <v>6.002666666666662</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.00000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>4800</v>
       </c>
       <c r="G53" t="n">
+        <v>6.004666666666663</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.001833333333343</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>7282.9845</v>
       </c>
       <c r="G54" t="n">
+        <v>6.003333333333329</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.999000000000009</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>3799.3508</v>
       </c>
       <c r="G55" t="n">
+        <v>6.003999999999996</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.998833333333343</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>20900</v>
       </c>
       <c r="G56" t="n">
+        <v>6.006666666666663</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.998666666666677</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1856.1899</v>
       </c>
       <c r="G57" t="n">
+        <v>5.999999999999997</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.996166666666676</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
+        <v>6.002666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.998166666666676</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>100</v>
       </c>
       <c r="G59" t="n">
+        <v>6.005333333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.99950000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
+        <v>6.007999999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.001166666666677</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>759.437</v>
       </c>
       <c r="G61" t="n">
+        <v>6.010666666666665</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.003000000000011</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>884.7529</v>
       </c>
       <c r="G62" t="n">
+        <v>6.013333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.003500000000011</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2224.31</v>
       </c>
       <c r="G63" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.005333333333344</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4786.69</v>
       </c>
       <c r="G64" t="n">
+        <v>6.019333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.006166666666678</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>200</v>
       </c>
       <c r="G65" t="n">
+        <v>6.022666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.007166666666678</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>689.0611</v>
       </c>
       <c r="G66" t="n">
+        <v>6.023333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.009166666666678</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>100</v>
       </c>
       <c r="G67" t="n">
+        <v>6.023999999999998</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.010333333333345</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>44.4444</v>
       </c>
       <c r="G68" t="n">
+        <v>6.024666666666664</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.011500000000011</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>43926.6115</v>
       </c>
       <c r="G69" t="n">
+        <v>6.034666666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.012333333333345</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>6.035333333333329</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.012000000000012</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>73.9225</v>
       </c>
       <c r="G71" t="n">
+        <v>6.035999999999996</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.011500000000012</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2000</v>
       </c>
       <c r="G72" t="n">
+        <v>6.045999999999995</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.012500000000013</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3776</v>
       </c>
       <c r="G73" t="n">
+        <v>6.046666666666662</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.013500000000012</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>200</v>
       </c>
       <c r="G74" t="n">
+        <v>6.047333333333327</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.014500000000012</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>6.047999999999993</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.015500000000013</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
+        <v>6.04866666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.016500000000012</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
+        <v>6.049333333333325</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.018666666666679</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>100010</v>
       </c>
       <c r="G78" t="n">
+        <v>6.049999999999992</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.019666666666679</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1811.4238</v>
       </c>
       <c r="G79" t="n">
+        <v>6.049333333333325</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.020500000000013</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>772.2033</v>
       </c>
       <c r="G80" t="n">
+        <v>6.038666666666659</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.017333333333346</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
+        <v>6.037999999999993</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.01666666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>5653.8079</v>
       </c>
       <c r="G82" t="n">
+        <v>6.037333333333327</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.016000000000014</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>20</v>
       </c>
       <c r="G83" t="n">
+        <v>6.035333333333327</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.015000000000014</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>851.6652</v>
       </c>
       <c r="G84" t="n">
+        <v>6.033999999999994</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.01416666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>3472.9085</v>
       </c>
       <c r="G85" t="n">
+        <v>6.03266666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.013333333333347</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>2586.6428</v>
       </c>
       <c r="G86" t="n">
+        <v>6.031999999999995</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.01266666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>44.4444</v>
       </c>
       <c r="G87" t="n">
+        <v>6.031333333333328</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.012000000000015</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>43816.7949</v>
       </c>
       <c r="G88" t="n">
+        <v>6.020666666666662</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.008833333333348</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
+        <v>6.019333333333329</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.008333333333348</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>5612.7164</v>
       </c>
       <c r="G90" t="n">
+        <v>6.017999999999996</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.010333333333347</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>100</v>
       </c>
       <c r="G91" t="n">
+        <v>6.015999999999996</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.01066666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
+        <v>6.013999999999996</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.012833333333346</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
+        <v>6.011999999999996</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.015166666666679</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>41097.5744</v>
       </c>
       <c r="G94" t="n">
+        <v>6.010666666666662</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.017500000000013</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1093.677204658902</v>
       </c>
       <c r="G95" t="n">
+        <v>6.018666666666662</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.018833333333346</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>9029.242899999999</v>
       </c>
       <c r="G96" t="n">
+        <v>6.016666666666662</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.019666666666679</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>6.014666666666661</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.019666666666679</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>11565.5761</v>
       </c>
       <c r="G98" t="n">
+        <v>6.005999999999996</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.017666666666679</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,22 +4139,21 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>6.004666666666663</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.019166666666679</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K99" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,557 +4177,963 @@
         <v>850000</v>
       </c>
       <c r="G100" t="n">
+        <v>5.993999999999996</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.016500000000012</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22686.7712</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.982666666666662</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6.014333333333346</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.979999999999995</v>
+      </c>
+      <c r="H102" t="n">
+        <v>6.014333333333346</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5649.8513</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.985999999999995</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6.014000000000013</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4955.9512</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.982666666666662</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.01366666666668</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.979333333333329</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6.013333333333347</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4979</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.976666666666663</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6.013000000000014</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F107" t="n">
+        <v>25584.1689</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.966666666666664</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.010833333333347</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.96333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6.010333333333348</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.959999999999997</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6.009833333333348</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F110" t="n">
+        <v>77.4496</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.95733333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.009333333333348</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F111" t="n">
+        <v>194.9748743718593</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.954666666666664</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6.008166666666682</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F112" t="n">
+        <v>168.3501</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.949999999999997</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.006500000000015</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F113" t="n">
+        <v>150</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.95333333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6.004833333333348</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2101.2012</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.948666666666663</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.005500000000015</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2776.448</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.953999999999995</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.004000000000015</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L115" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F101" t="n">
-        <v>22686.7712</v>
-      </c>
-      <c r="G101" t="n">
-        <v>6.014333333333346</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13498.1193</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.960666666666662</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.002833333333347</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L116" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>6</v>
-      </c>
-      <c r="C102" t="n">
-        <v>6</v>
-      </c>
-      <c r="D102" t="n">
-        <v>6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10</v>
-      </c>
-      <c r="G102" t="n">
-        <v>6.014333333333346</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F117" t="n">
+        <v>689.3031</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.958666666666661</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6.004000000000016</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E103" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F103" t="n">
-        <v>5649.8513</v>
-      </c>
-      <c r="G103" t="n">
-        <v>6.014000000000013</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7410.1698</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.957999999999995</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6.002833333333348</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D104" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E104" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4955.9512</v>
-      </c>
-      <c r="G104" t="n">
-        <v>6.01366666666668</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F119" t="n">
+        <v>266.6664</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.957333333333327</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6.001666666666682</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D105" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E105" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F105" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>6.013333333333347</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F120" t="n">
+        <v>222.222</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.956666666666661</v>
+      </c>
+      <c r="H120" t="n">
+        <v>6.000500000000016</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C106" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D106" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E106" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4979</v>
-      </c>
-      <c r="G106" t="n">
-        <v>6.013000000000014</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F121" t="n">
+        <v>311.1108</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.955999999999993</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5.999333333333349</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>5.87</v>
       </c>
-      <c r="D107" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="C122" t="n">
         <v>5.87</v>
       </c>
-      <c r="F107" t="n">
-        <v>25584.1689</v>
-      </c>
-      <c r="G107" t="n">
-        <v>6.010833333333347</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="D122" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9698.5355</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.955999999999993</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5.996500000000015</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>5.97</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C123" t="n">
         <v>5.97</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D123" t="n">
         <v>5.97</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E123" t="n">
         <v>5.97</v>
       </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>6.010333333333348</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.955999999999993</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5.995333333333349</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" t="n">
-        <v>6.009833333333348</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F110" t="n">
-        <v>77.4496</v>
-      </c>
-      <c r="G110" t="n">
-        <v>6.009333333333348</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F111" t="n">
-        <v>194.9748743718593</v>
-      </c>
-      <c r="G111" t="n">
-        <v>6.008166666666682</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F112" t="n">
-        <v>168.3501</v>
-      </c>
-      <c r="G112" t="n">
-        <v>6.006500000000015</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F113" t="n">
-        <v>150</v>
-      </c>
-      <c r="G113" t="n">
-        <v>6.004833333333348</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C2" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D2" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E2" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>44419.9013</v>
       </c>
       <c r="G2" t="n">
-        <v>6.02066666666666</v>
+        <v>-779579.855525241</v>
       </c>
       <c r="H2" t="n">
-        <v>6.037833333333336</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -482,30 +474,27 @@
         <v>5.93</v>
       </c>
       <c r="D3" t="n">
-        <v>5.93</v>
+        <v>6.04</v>
       </c>
       <c r="E3" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="F3" t="n">
-        <v>4380.228</v>
+        <v>337026.8981</v>
       </c>
       <c r="G3" t="n">
-        <v>6.01066666666666</v>
+        <v>-1116606.753625241</v>
       </c>
       <c r="H3" t="n">
-        <v>6.034666666666669</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>183107.998</v>
       </c>
       <c r="G4" t="n">
-        <v>6.005333333333327</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H4" t="n">
-        <v>6.034833333333336</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99</v>
+        <v>6.02</v>
       </c>
       <c r="C5" t="n">
-        <v>5.99</v>
+        <v>6.02</v>
       </c>
       <c r="D5" t="n">
-        <v>5.99</v>
+        <v>6.02</v>
       </c>
       <c r="E5" t="n">
-        <v>5.99</v>
+        <v>6.02</v>
       </c>
       <c r="F5" t="n">
-        <v>3515.0667</v>
+        <v>33042.276</v>
       </c>
       <c r="G5" t="n">
-        <v>5.999333333333326</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H5" t="n">
-        <v>6.03316666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.93</v>
+        <v>6.03</v>
       </c>
       <c r="C6" t="n">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="D6" t="n">
-        <v>5.93</v>
+        <v>6.03</v>
       </c>
       <c r="E6" t="n">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="F6" t="n">
-        <v>3510.0586</v>
+        <v>26589.0168</v>
       </c>
       <c r="G6" t="n">
-        <v>5.989333333333327</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H6" t="n">
-        <v>6.03066666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="C7" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D7" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="E7" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>5.982666666666661</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H7" t="n">
-        <v>6.028833333333337</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.9</v>
+        <v>6.07</v>
       </c>
       <c r="C8" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D8" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="E8" t="n">
-        <v>5.89</v>
+        <v>6.07</v>
       </c>
       <c r="F8" t="n">
-        <v>42268.6811</v>
+        <v>44.4444</v>
       </c>
       <c r="G8" t="n">
-        <v>5.985999999999994</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H8" t="n">
-        <v>6.027000000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E9" t="n">
-        <v>5.89</v>
+        <v>6.07</v>
       </c>
       <c r="F9" t="n">
-        <v>106048.1539</v>
+        <v>537.8206</v>
       </c>
       <c r="G9" t="n">
-        <v>5.981333333333327</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H9" t="n">
-        <v>6.025500000000005</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C10" t="n">
         <v>6.07</v>
@@ -751,27 +722,24 @@
         <v>6.07</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="F10" t="n">
-        <v>192532.912</v>
+        <v>8000</v>
       </c>
       <c r="G10" t="n">
-        <v>5.982666666666661</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H10" t="n">
-        <v>6.025166666666673</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C11" t="n">
         <v>6.08</v>
@@ -789,27 +757,24 @@
         <v>6.08</v>
       </c>
       <c r="E11" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>20188.7776</v>
       </c>
       <c r="G11" t="n">
-        <v>5.98466666666666</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H11" t="n">
-        <v>6.028666666666672</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="C12" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D12" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E12" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="F12" t="n">
-        <v>12818.1366</v>
+        <v>1954.0625</v>
       </c>
       <c r="G12" t="n">
-        <v>5.980666666666661</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H12" t="n">
-        <v>6.029833333333339</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C13" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D13" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E13" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>910.2899</v>
       </c>
       <c r="G13" t="n">
-        <v>5.985333333333327</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H13" t="n">
-        <v>6.031166666666672</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="C14" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D14" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E14" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="F14" t="n">
-        <v>54729.0376</v>
+        <v>1944.1802</v>
       </c>
       <c r="G14" t="n">
-        <v>5.987333333333327</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H14" t="n">
-        <v>6.029833333333339</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="C15" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D15" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E15" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="F15" t="n">
-        <v>16405.3369</v>
+        <v>88.8888</v>
       </c>
       <c r="G15" t="n">
-        <v>5.99066666666666</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H15" t="n">
-        <v>6.028500000000006</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C16" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D16" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E16" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>966.931</v>
       </c>
       <c r="G16" t="n">
-        <v>5.99466666666666</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H16" t="n">
-        <v>6.027166666666672</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="C17" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="D17" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="E17" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="F17" t="n">
-        <v>68131.69500000001</v>
+        <v>88.8888</v>
       </c>
       <c r="G17" t="n">
-        <v>5.98866666666666</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H17" t="n">
-        <v>6.024666666666673</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C18" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D18" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E18" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>5.99266666666666</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H18" t="n">
-        <v>6.02333333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C19" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D19" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E19" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F19" t="n">
-        <v>12437.1366</v>
+        <v>11.1112</v>
       </c>
       <c r="G19" t="n">
-        <v>5.991999999999993</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H19" t="n">
-        <v>6.022000000000006</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="C20" t="n">
         <v>6.08</v>
@@ -1131,27 +1072,24 @@
         <v>6.08</v>
       </c>
       <c r="E20" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="F20" t="n">
-        <v>127.5986</v>
+        <v>244.222</v>
       </c>
       <c r="G20" t="n">
-        <v>5.997999999999993</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H20" t="n">
-        <v>6.022166666666673</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,27 +1107,24 @@
         <v>6.08</v>
       </c>
       <c r="E21" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="F21" t="n">
-        <v>219.95</v>
+        <v>1555.778</v>
       </c>
       <c r="G21" t="n">
-        <v>6.007999999999993</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H21" t="n">
-        <v>6.022333333333339</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C22" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="D22" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E22" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>60619.4323</v>
       </c>
       <c r="G22" t="n">
-        <v>6.014666666666659</v>
+        <v>-973918.410325241</v>
       </c>
       <c r="H22" t="n">
-        <v>6.022500000000006</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C23" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D23" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E23" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F23" t="n">
-        <v>88.8888</v>
+        <v>10.1177</v>
       </c>
       <c r="G23" t="n">
-        <v>6.021333333333326</v>
+        <v>-973908.2926252411</v>
       </c>
       <c r="H23" t="n">
-        <v>6.022666666666672</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="C24" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D24" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E24" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="F24" t="n">
-        <v>88.8888</v>
+        <v>33255.5046</v>
       </c>
       <c r="G24" t="n">
-        <v>6.026666666666658</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H24" t="n">
-        <v>6.025166666666673</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="C25" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D25" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E25" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="F25" t="n">
-        <v>519.4443</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>6.027333333333326</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H25" t="n">
-        <v>6.027666666666672</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C26" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D26" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E26" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F26" t="n">
-        <v>350.62</v>
+        <v>20.6327</v>
       </c>
       <c r="G26" t="n">
-        <v>6.027333333333326</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H26" t="n">
-        <v>6.027833333333338</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="C27" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="D27" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="E27" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="F27" t="n">
-        <v>24.671</v>
+        <v>129798.7012</v>
       </c>
       <c r="G27" t="n">
-        <v>6.033333333333326</v>
+        <v>-1136962.498425241</v>
       </c>
       <c r="H27" t="n">
-        <v>6.030333333333338</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.08</v>
+        <v>5.96</v>
       </c>
       <c r="C28" t="n">
-        <v>6.08</v>
+        <v>5.96</v>
       </c>
       <c r="D28" t="n">
-        <v>6.08</v>
+        <v>5.96</v>
       </c>
       <c r="E28" t="n">
-        <v>6.08</v>
+        <v>5.96</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>6.039333333333326</v>
+        <v>-1136952.498425241</v>
       </c>
       <c r="H28" t="n">
-        <v>6.030500000000004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.06</v>
+        <v>5.94</v>
       </c>
       <c r="C29" t="n">
-        <v>6.06</v>
+        <v>5.94</v>
       </c>
       <c r="D29" t="n">
-        <v>6.06</v>
+        <v>5.94</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06</v>
+        <v>5.94</v>
       </c>
       <c r="F29" t="n">
-        <v>10750</v>
+        <v>515.4882</v>
       </c>
       <c r="G29" t="n">
-        <v>6.043999999999993</v>
+        <v>-1137467.986625241</v>
       </c>
       <c r="H29" t="n">
-        <v>6.030166666666672</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1505,33 +1416,30 @@
         <v>5.93</v>
       </c>
       <c r="C30" t="n">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="D30" t="n">
         <v>5.93</v>
       </c>
       <c r="E30" t="n">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="F30" t="n">
-        <v>219526.2546</v>
+        <v>13125.5563</v>
       </c>
       <c r="G30" t="n">
-        <v>6.03866666666666</v>
+        <v>-1150593.542925241</v>
       </c>
       <c r="H30" t="n">
-        <v>6.030000000000005</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>6.039333333333327</v>
+        <v>-1150583.542925241</v>
       </c>
       <c r="H31" t="n">
-        <v>6.028666666666672</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="C32" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
       <c r="D32" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="E32" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
       <c r="F32" t="n">
-        <v>522788.8656</v>
+        <v>4380.228</v>
       </c>
       <c r="G32" t="n">
-        <v>6.037333333333327</v>
+        <v>-1154963.770925241</v>
       </c>
       <c r="H32" t="n">
-        <v>6.025500000000005</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>270869.3757</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>6.029999999999993</v>
+        <v>-1154953.770925241</v>
       </c>
       <c r="H33" t="n">
-        <v>6.022166666666672</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="C34" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="D34" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="E34" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="F34" t="n">
-        <v>20732.6301</v>
+        <v>3515.0667</v>
       </c>
       <c r="G34" t="n">
-        <v>6.022666666666661</v>
+        <v>-1158468.837625241</v>
       </c>
       <c r="H34" t="n">
-        <v>6.021333333333339</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,24 +1600,21 @@
         <v>5.93</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>3510.0586</v>
       </c>
       <c r="G35" t="n">
-        <v>6.01266666666666</v>
+        <v>-1161978.896225241</v>
       </c>
       <c r="H35" t="n">
-        <v>6.019833333333339</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="C36" t="n">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="D36" t="n">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="E36" t="n">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>6.00466666666666</v>
+        <v>-1161968.896225241</v>
       </c>
       <c r="H36" t="n">
-        <v>6.018833333333339</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="C37" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="D37" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="E37" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>42268.6811</v>
       </c>
       <c r="G37" t="n">
-        <v>5.999999999999994</v>
+        <v>-1161968.896225241</v>
       </c>
       <c r="H37" t="n">
-        <v>6.018666666666673</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="C38" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>106048.1539</v>
       </c>
       <c r="G38" t="n">
-        <v>5.995333333333327</v>
+        <v>-1055920.742325241</v>
       </c>
       <c r="H38" t="n">
-        <v>6.017666666666672</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="D39" t="n">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="E39" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>1733.4512</v>
+        <v>192532.912</v>
       </c>
       <c r="G39" t="n">
-        <v>5.98466666666666</v>
+        <v>-863387.8303252412</v>
       </c>
       <c r="H39" t="n">
-        <v>6.015166666666673</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="C40" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="D40" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="E40" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="F40" t="n">
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>5.981333333333327</v>
+        <v>-863377.8303252412</v>
       </c>
       <c r="H40" t="n">
-        <v>6.014500000000006</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E41" t="n">
-        <v>5.87</v>
+        <v>5.93</v>
       </c>
       <c r="F41" t="n">
-        <v>342813.5931</v>
+        <v>12818.1366</v>
       </c>
       <c r="G41" t="n">
-        <v>5.975999999999995</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H41" t="n">
-        <v>6.013333333333339</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>5.970666666666661</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H42" t="n">
-        <v>6.012000000000006</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.87</v>
+        <v>5.93</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E43" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="F43" t="n">
-        <v>82522.1237</v>
+        <v>54729.0376</v>
       </c>
       <c r="G43" t="n">
-        <v>5.965333333333328</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H43" t="n">
-        <v>6.010666666666673</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="F44" t="n">
-        <v>1400</v>
+        <v>16405.3369</v>
       </c>
       <c r="G44" t="n">
-        <v>5.961333333333328</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H44" t="n">
-        <v>6.00933333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F45" t="n">
-        <v>6093.8833</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>5.967333333333328</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H45" t="n">
-        <v>6.008000000000007</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>68131.69500000001</v>
       </c>
       <c r="G46" t="n">
-        <v>5.967333333333328</v>
+        <v>-944327.6619252411</v>
       </c>
       <c r="H46" t="n">
-        <v>6.006666666666674</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>5.974666666666661</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H47" t="n">
-        <v>6.005333333333341</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F48" t="n">
-        <v>3883.7499</v>
+        <v>12437.1366</v>
       </c>
       <c r="G48" t="n">
-        <v>5.982666666666661</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H48" t="n">
-        <v>6.004000000000008</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="F49" t="n">
-        <v>4823.6369</v>
+        <v>127.5986</v>
       </c>
       <c r="G49" t="n">
-        <v>5.990666666666661</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H49" t="n">
-        <v>6.002666666666674</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="F50" t="n">
-        <v>1557.3333</v>
+        <v>219.95</v>
       </c>
       <c r="G50" t="n">
-        <v>5.995333333333329</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H50" t="n">
-        <v>6.001333333333341</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="C51" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D51" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="F51" t="n">
-        <v>21242.6673</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>6.000666666666662</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H51" t="n">
-        <v>6.000666666666675</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C52" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D52" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E52" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>88.8888</v>
       </c>
       <c r="G52" t="n">
-        <v>6.002666666666662</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H52" t="n">
-        <v>6.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C53" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D53" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E53" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F53" t="n">
-        <v>4800</v>
+        <v>88.8888</v>
       </c>
       <c r="G53" t="n">
-        <v>6.004666666666663</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H53" t="n">
-        <v>6.001833333333343</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="C54" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="D54" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E54" t="n">
-        <v>5.9</v>
+        <v>5.99</v>
       </c>
       <c r="F54" t="n">
-        <v>7282.9845</v>
+        <v>519.4443</v>
       </c>
       <c r="G54" t="n">
-        <v>6.003333333333329</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H54" t="n">
-        <v>5.999000000000009</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="C55" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D55" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E55" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="F55" t="n">
-        <v>3799.3508</v>
+        <v>350.62</v>
       </c>
       <c r="G55" t="n">
-        <v>6.003999999999996</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H55" t="n">
-        <v>5.998833333333343</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C56" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D56" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E56" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F56" t="n">
-        <v>20900</v>
+        <v>24.671</v>
       </c>
       <c r="G56" t="n">
-        <v>6.006666666666663</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H56" t="n">
-        <v>5.998666666666677</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C57" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="D57" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E57" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="F57" t="n">
-        <v>1856.1899</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>5.999999999999997</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H57" t="n">
-        <v>5.996166666666676</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="C58" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="D58" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="E58" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>10750</v>
       </c>
       <c r="G58" t="n">
-        <v>6.002666666666665</v>
+        <v>-954939.0633252411</v>
       </c>
       <c r="H58" t="n">
-        <v>5.998166666666676</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="C59" t="n">
-        <v>6.04</v>
+        <v>5.91</v>
       </c>
       <c r="D59" t="n">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="E59" t="n">
-        <v>6.04</v>
+        <v>5.91</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>219526.2546</v>
       </c>
       <c r="G59" t="n">
-        <v>6.005333333333331</v>
+        <v>-1174465.317925241</v>
       </c>
       <c r="H59" t="n">
-        <v>5.99950000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>6.007999999999998</v>
+        <v>-1174454.317925241</v>
       </c>
       <c r="H60" t="n">
-        <v>6.001166666666677</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="C61" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="D61" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="E61" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F61" t="n">
-        <v>759.437</v>
+        <v>522788.8656</v>
       </c>
       <c r="G61" t="n">
-        <v>6.010666666666665</v>
+        <v>-1697243.183525241</v>
       </c>
       <c r="H61" t="n">
-        <v>6.003000000000011</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="C62" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="D62" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="E62" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="F62" t="n">
-        <v>884.7529</v>
+        <v>270869.3757</v>
       </c>
       <c r="G62" t="n">
-        <v>6.013333333333333</v>
+        <v>-1968112.559225241</v>
       </c>
       <c r="H62" t="n">
-        <v>6.003500000000011</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="C63" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="D63" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="E63" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="F63" t="n">
-        <v>2224.31</v>
+        <v>20732.6301</v>
       </c>
       <c r="G63" t="n">
-        <v>6.016</v>
+        <v>-1968112.559225241</v>
       </c>
       <c r="H63" t="n">
-        <v>6.005333333333344</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="C64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E64" t="n">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="F64" t="n">
-        <v>4786.69</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>6.019333333333333</v>
+        <v>-1968101.559225241</v>
       </c>
       <c r="H64" t="n">
-        <v>6.006166666666678</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="C65" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="D65" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="E65" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>6.022666666666666</v>
+        <v>-1968091.559225241</v>
       </c>
       <c r="H65" t="n">
-        <v>6.007166666666678</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F66" t="n">
-        <v>689.0611</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>6.023333333333332</v>
+        <v>-1968081.559225241</v>
       </c>
       <c r="H66" t="n">
-        <v>6.009166666666678</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C67" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D67" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E67" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>6.023999999999998</v>
+        <v>-1968081.559225241</v>
       </c>
       <c r="H67" t="n">
-        <v>6.010333333333345</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="C68" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="D68" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="E68" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="F68" t="n">
-        <v>44.4444</v>
+        <v>1733.4512</v>
       </c>
       <c r="G68" t="n">
-        <v>6.024666666666664</v>
+        <v>-1969815.010425241</v>
       </c>
       <c r="H68" t="n">
-        <v>6.011500000000011</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="C69" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="D69" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E69" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="F69" t="n">
-        <v>43926.6115</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>6.034666666666664</v>
+        <v>-1969805.010425241</v>
       </c>
       <c r="H69" t="n">
-        <v>6.012333333333345</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="C70" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>342813.5931</v>
       </c>
       <c r="G70" t="n">
-        <v>6.035333333333329</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H70" t="n">
-        <v>6.012000000000012</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>73.9225</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>6.035999999999996</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H71" t="n">
-        <v>6.011500000000012</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="C72" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>82522.1237</v>
       </c>
       <c r="G72" t="n">
-        <v>6.045999999999995</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H72" t="n">
-        <v>6.012500000000013</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>3776</v>
+        <v>1400</v>
       </c>
       <c r="G73" t="n">
-        <v>6.046666666666662</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H73" t="n">
-        <v>6.013500000000012</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>6093.8833</v>
       </c>
       <c r="G74" t="n">
-        <v>6.047333333333327</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H74" t="n">
-        <v>6.014500000000012</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>6.047999999999993</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H75" t="n">
-        <v>6.015500000000013</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" t="n">
-        <v>6.04866666666666</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H76" t="n">
-        <v>6.016500000000012</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>3883.7499</v>
       </c>
       <c r="G77" t="n">
-        <v>6.049333333333325</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H77" t="n">
-        <v>6.018666666666679</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>100010</v>
+        <v>4823.6369</v>
       </c>
       <c r="G78" t="n">
-        <v>6.049999999999992</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H78" t="n">
-        <v>6.019666666666679</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3132,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
-        <v>1811.4238</v>
+        <v>1557.3333</v>
       </c>
       <c r="G79" t="n">
-        <v>6.049333333333325</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H79" t="n">
-        <v>6.020500000000013</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3173,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="D80" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="E80" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>772.2033</v>
+        <v>21242.6673</v>
       </c>
       <c r="G80" t="n">
-        <v>6.038666666666659</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H80" t="n">
-        <v>6.017333333333346</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,24 +3226,27 @@
         <v>6.04</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="G81" t="n">
-        <v>6.037999999999993</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H81" t="n">
-        <v>6.01666666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,24 +3267,27 @@
         <v>6.04</v>
       </c>
       <c r="F82" t="n">
-        <v>5653.8079</v>
+        <v>4800</v>
       </c>
       <c r="G82" t="n">
-        <v>6.037333333333327</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H82" t="n">
-        <v>6.016000000000014</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3296,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C83" t="n">
-        <v>6.02</v>
+        <v>5.9</v>
       </c>
       <c r="D83" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E83" t="n">
-        <v>6.02</v>
+        <v>5.9</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>7282.9845</v>
       </c>
       <c r="G83" t="n">
-        <v>6.035333333333327</v>
+        <v>-2298658.920725241</v>
       </c>
       <c r="H83" t="n">
-        <v>6.015000000000014</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3337,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="C84" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D84" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E84" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="F84" t="n">
-        <v>851.6652</v>
+        <v>3799.3508</v>
       </c>
       <c r="G84" t="n">
-        <v>6.033999999999994</v>
+        <v>-2294859.569925241</v>
       </c>
       <c r="H84" t="n">
-        <v>6.01416666666668</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3378,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C85" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D85" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E85" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F85" t="n">
-        <v>3472.9085</v>
+        <v>20900</v>
       </c>
       <c r="G85" t="n">
-        <v>6.03266666666666</v>
+        <v>-2294859.569925241</v>
       </c>
       <c r="H85" t="n">
-        <v>6.013333333333347</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3419,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C86" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="D86" t="n">
         <v>6.04</v>
       </c>
       <c r="E86" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2586.6428</v>
+        <v>1856.1899</v>
       </c>
       <c r="G86" t="n">
-        <v>6.031999999999995</v>
+        <v>-2296715.759825241</v>
       </c>
       <c r="H86" t="n">
-        <v>6.01266666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,24 +3472,27 @@
         <v>6.04</v>
       </c>
       <c r="F87" t="n">
-        <v>44.4444</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>6.031333333333328</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H87" t="n">
-        <v>6.012000000000015</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3501,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C88" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="D88" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E88" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="F88" t="n">
-        <v>43816.7949</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>6.020666666666662</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H88" t="n">
-        <v>6.008833333333348</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3542,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C89" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D89" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E89" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>6.019333333333329</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H89" t="n">
-        <v>6.008333333333348</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3583,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="C90" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D90" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E90" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="F90" t="n">
-        <v>5612.7164</v>
+        <v>759.437</v>
       </c>
       <c r="G90" t="n">
-        <v>6.017999999999996</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H90" t="n">
-        <v>6.010333333333347</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3624,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C91" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D91" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E91" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>884.7529</v>
       </c>
       <c r="G91" t="n">
-        <v>6.015999999999996</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H91" t="n">
-        <v>6.01066666666668</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3665,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C92" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D92" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E92" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>2224.31</v>
       </c>
       <c r="G92" t="n">
-        <v>6.013999999999996</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H92" t="n">
-        <v>6.012833333333346</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3706,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C93" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="D93" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="E93" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>4786.69</v>
       </c>
       <c r="G93" t="n">
-        <v>6.011999999999996</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H93" t="n">
-        <v>6.015166666666679</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3747,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="C94" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="D94" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="E94" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="F94" t="n">
-        <v>41097.5744</v>
+        <v>200</v>
       </c>
       <c r="G94" t="n">
-        <v>6.010666666666662</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H94" t="n">
-        <v>6.017500000000013</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3788,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C95" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="D95" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E95" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="F95" t="n">
-        <v>1093.677204658902</v>
+        <v>689.0611</v>
       </c>
       <c r="G95" t="n">
-        <v>6.018666666666662</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H95" t="n">
-        <v>6.018833333333346</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3829,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C96" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="D96" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E96" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="F96" t="n">
-        <v>9029.242899999999</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>6.016666666666662</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H96" t="n">
-        <v>6.019666666666679</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3870,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C97" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="D97" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E97" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>44.4444</v>
       </c>
       <c r="G97" t="n">
-        <v>6.014666666666661</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H97" t="n">
-        <v>6.019666666666679</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3911,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="D98" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="E98" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="F98" t="n">
-        <v>11565.5761</v>
+        <v>43926.6115</v>
       </c>
       <c r="G98" t="n">
-        <v>6.005999999999996</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H98" t="n">
-        <v>6.017666666666679</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3952,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C99" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="D99" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E99" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="F99" t="n">
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>6.004666666666663</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H99" t="n">
-        <v>6.019166666666679</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3993,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="C100" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="D100" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="E100" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="F100" t="n">
-        <v>850000</v>
+        <v>73.9225</v>
       </c>
       <c r="G100" t="n">
-        <v>5.993999999999996</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H100" t="n">
-        <v>6.016500000000012</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4034,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C101" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E101" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="F101" t="n">
-        <v>22686.7712</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>5.982666666666662</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H101" t="n">
-        <v>6.014333333333346</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4075,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>3776</v>
       </c>
       <c r="G102" t="n">
-        <v>5.979999999999995</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H102" t="n">
-        <v>6.014333333333346</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4116,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="C103" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="D103" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E103" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="F103" t="n">
-        <v>5649.8513</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>5.985999999999995</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H103" t="n">
-        <v>6.014000000000013</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4157,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="D104" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E104" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="F104" t="n">
-        <v>4955.9512</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>5.982666666666662</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H104" t="n">
-        <v>6.01366666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4198,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="C105" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="D105" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E105" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="F105" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>5.979333333333329</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H105" t="n">
-        <v>6.013333333333347</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4239,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="C106" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="D106" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="E106" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="F106" t="n">
-        <v>4979</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>5.976666666666663</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H106" t="n">
-        <v>6.013000000000014</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4280,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="C107" t="n">
-        <v>5.87</v>
+        <v>6.05</v>
       </c>
       <c r="D107" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="E107" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F107" t="n">
-        <v>25584.1689</v>
+        <v>100010</v>
       </c>
       <c r="G107" t="n">
-        <v>5.966666666666664</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H107" t="n">
-        <v>6.010833333333347</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4321,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="C108" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D108" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="E108" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>1811.4238</v>
       </c>
       <c r="G108" t="n">
-        <v>5.96333333333333</v>
+        <v>-2293730.493625241</v>
       </c>
       <c r="H108" t="n">
-        <v>6.010333333333348</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4362,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C109" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="D109" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="E109" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>772.2033</v>
       </c>
       <c r="G109" t="n">
-        <v>5.959999999999997</v>
+        <v>-2294502.696925241</v>
       </c>
       <c r="H109" t="n">
-        <v>6.009833333333348</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4403,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.87</v>
+        <v>6.04</v>
       </c>
       <c r="C110" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D110" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="E110" t="n">
-        <v>5.87</v>
+        <v>6.04</v>
       </c>
       <c r="F110" t="n">
-        <v>77.4496</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>5.95733333333333</v>
+        <v>-2294492.696925241</v>
       </c>
       <c r="H110" t="n">
-        <v>6.009333333333348</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4444,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="C111" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D111" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="E111" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="F111" t="n">
-        <v>194.9748743718593</v>
+        <v>5653.8079</v>
       </c>
       <c r="G111" t="n">
-        <v>5.954666666666664</v>
+        <v>-2294492.696925241</v>
       </c>
       <c r="H111" t="n">
-        <v>6.008166666666682</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4485,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="C112" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D112" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="E112" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F112" t="n">
-        <v>168.3501</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>5.949999999999997</v>
+        <v>-2294512.696925241</v>
       </c>
       <c r="H112" t="n">
-        <v>6.006500000000015</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,40 +4526,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="C113" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="D113" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="E113" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="F113" t="n">
-        <v>150</v>
+        <v>851.6652</v>
       </c>
       <c r="G113" t="n">
-        <v>5.95333333333333</v>
+        <v>-2293661.031725241</v>
       </c>
       <c r="H113" t="n">
-        <v>6.004833333333348</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,42 +4567,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="C114" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="D114" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="E114" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="F114" t="n">
-        <v>2101.2012</v>
+        <v>3472.9085</v>
       </c>
       <c r="G114" t="n">
-        <v>5.948666666666663</v>
+        <v>-2293661.031725241</v>
       </c>
       <c r="H114" t="n">
-        <v>6.005500000000015</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,44 +4608,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="C115" t="n">
-        <v>5.95</v>
+        <v>6.04</v>
       </c>
       <c r="D115" t="n">
-        <v>5.95</v>
+        <v>6.04</v>
       </c>
       <c r="E115" t="n">
-        <v>5.94</v>
+        <v>6.03</v>
       </c>
       <c r="F115" t="n">
-        <v>2776.448</v>
+        <v>2586.6428</v>
       </c>
       <c r="G115" t="n">
-        <v>5.953999999999995</v>
+        <v>-2291074.388925241</v>
       </c>
       <c r="H115" t="n">
-        <v>6.004000000000015</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,44 +4649,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.95</v>
+        <v>6.04</v>
       </c>
       <c r="C116" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D116" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="E116" t="n">
-        <v>5.95</v>
+        <v>6.04</v>
       </c>
       <c r="F116" t="n">
-        <v>13498.1193</v>
+        <v>44.4444</v>
       </c>
       <c r="G116" t="n">
-        <v>5.960666666666662</v>
+        <v>-2291074.388925241</v>
       </c>
       <c r="H116" t="n">
-        <v>6.002833333333347</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,42 +4690,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C117" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="D117" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="E117" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="F117" t="n">
-        <v>689.3031</v>
+        <v>43816.7949</v>
       </c>
       <c r="G117" t="n">
-        <v>5.958666666666661</v>
+        <v>-2334891.183825241</v>
       </c>
       <c r="H117" t="n">
-        <v>6.004000000000016</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,42 +4731,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.96</v>
+        <v>6.03</v>
       </c>
       <c r="C118" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="D118" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="E118" t="n">
-        <v>5.96</v>
+        <v>6.03</v>
       </c>
       <c r="F118" t="n">
-        <v>7410.1698</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>5.957999999999995</v>
+        <v>-2334881.183825241</v>
       </c>
       <c r="H118" t="n">
-        <v>6.002833333333348</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,42 +4772,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C119" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="D119" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="E119" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="F119" t="n">
-        <v>266.6664</v>
+        <v>5612.7164</v>
       </c>
       <c r="G119" t="n">
-        <v>5.957333333333327</v>
+        <v>-2334881.183825241</v>
       </c>
       <c r="H119" t="n">
-        <v>6.001666666666682</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,42 +4813,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="C120" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="D120" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="E120" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="F120" t="n">
-        <v>222.222</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>5.956666666666661</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H120" t="n">
-        <v>6.000500000000016</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,42 +4854,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="C121" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="D121" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="E121" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="F121" t="n">
-        <v>311.1108</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>5.955999999999993</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H121" t="n">
-        <v>5.999333333333349</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,42 +4895,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.87</v>
+        <v>6.02</v>
       </c>
       <c r="C122" t="n">
-        <v>5.87</v>
+        <v>6.02</v>
       </c>
       <c r="D122" t="n">
-        <v>5.87</v>
+        <v>6.02</v>
       </c>
       <c r="E122" t="n">
-        <v>5.87</v>
+        <v>6.02</v>
       </c>
       <c r="F122" t="n">
-        <v>9698.5355</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>5.955999999999993</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H122" t="n">
-        <v>5.996500000000015</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,42 +4936,1238 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F123" t="n">
+        <v>41097.5744</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1093.677204658902</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9029.242899999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11565.5761</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2347640.4371299</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2347630.4371299</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F129" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22686.7712</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3197620.4371299</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5649.8513</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4955.9512</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4979</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F136" t="n">
+        <v>25584.1689</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3228854.4573299</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>5.97</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C137" t="n">
         <v>5.97</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D137" t="n">
         <v>5.97</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E137" t="n">
         <v>5.97</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F139" t="n">
+        <v>77.4496</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F140" t="n">
+        <v>194.9748743718593</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F141" t="n">
+        <v>168.3501</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F142" t="n">
+        <v>150</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>6</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2101.2012</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>6</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2776.448</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3226236.3594299</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>6</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F145" t="n">
+        <v>13498.1193</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>6</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F146" t="n">
+        <v>689.3031</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K146" t="n">
+        <v>6</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7410.1698</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>6</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F148" t="n">
+        <v>266.6664</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F149" t="n">
+        <v>222.222</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>6</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F150" t="n">
+        <v>311.1108</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>6</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9698.5355</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3222436.7756299</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F152" t="n">
         <v>11</v>
       </c>
-      <c r="G123" t="n">
-        <v>5.955999999999993</v>
-      </c>
-      <c r="H123" t="n">
-        <v>5.995333333333349</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="G152" t="n">
+        <v>-3222425.7756299</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>6</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="C2" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D2" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="E2" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="F2" t="n">
-        <v>44419.9013</v>
+        <v>16405.3369</v>
       </c>
       <c r="G2" t="n">
-        <v>-779579.855525241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="C3" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="D3" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="E3" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F3" t="n">
-        <v>337026.8981</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>-1116606.753625241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.02</v>
+        <v>5.92</v>
       </c>
       <c r="C4" t="n">
-        <v>6.02</v>
+        <v>5.92</v>
       </c>
       <c r="D4" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="E4" t="n">
         <v>5.92</v>
       </c>
       <c r="F4" t="n">
-        <v>183107.998</v>
+        <v>68131.69500000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-933498.7556252411</v>
+        <v>-944327.6619252411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="C5" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="D5" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="E5" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="F5" t="n">
-        <v>33042.276</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>-933498.7556252411</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C6" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="D6" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="E6" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="F6" t="n">
-        <v>26589.0168</v>
+        <v>12437.1366</v>
       </c>
       <c r="G6" t="n">
-        <v>-933498.7556252411</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="C7" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="D7" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="E7" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>127.5986</v>
       </c>
       <c r="G7" t="n">
-        <v>-933487.7556252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="C8" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="D8" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="E8" t="n">
-        <v>6.07</v>
+        <v>5.93</v>
       </c>
       <c r="F8" t="n">
-        <v>44.4444</v>
+        <v>219.95</v>
       </c>
       <c r="G8" t="n">
-        <v>-933487.7556252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="C9" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="D9" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="E9" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="F9" t="n">
-        <v>537.8206</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-933487.7556252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="C10" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="D10" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="E10" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="F10" t="n">
-        <v>8000</v>
+        <v>88.8888</v>
       </c>
       <c r="G10" t="n">
-        <v>-933487.7556252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,13 +755,14 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="C11" t="n">
         <v>6.08</v>
@@ -757,19 +771,19 @@
         <v>6.08</v>
       </c>
       <c r="E11" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="F11" t="n">
-        <v>20188.7776</v>
+        <v>88.8888</v>
       </c>
       <c r="G11" t="n">
-        <v>-913298.9780252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,13 +791,14 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="C12" t="n">
         <v>6.08</v>
@@ -792,13 +807,13 @@
         <v>6.08</v>
       </c>
       <c r="E12" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="F12" t="n">
-        <v>1954.0625</v>
+        <v>519.4443</v>
       </c>
       <c r="G12" t="n">
-        <v>-913298.9780252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -830,10 +846,10 @@
         <v>6.08</v>
       </c>
       <c r="F13" t="n">
-        <v>910.2899</v>
+        <v>350.62</v>
       </c>
       <c r="G13" t="n">
-        <v>-913298.9780252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -865,16 +882,16 @@
         <v>6.08</v>
       </c>
       <c r="F14" t="n">
-        <v>1944.1802</v>
+        <v>24.671</v>
       </c>
       <c r="G14" t="n">
-        <v>-913298.9780252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -900,10 +918,10 @@
         <v>6.08</v>
       </c>
       <c r="F15" t="n">
-        <v>88.8888</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-913298.9780252411</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="C16" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="D16" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="E16" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="F16" t="n">
-        <v>966.931</v>
+        <v>10750</v>
       </c>
       <c r="G16" t="n">
-        <v>-913298.9780252411</v>
+        <v>-954939.0633252411</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="C17" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="D17" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="E17" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="F17" t="n">
-        <v>88.8888</v>
+        <v>219526.2546</v>
       </c>
       <c r="G17" t="n">
-        <v>-913298.9780252411</v>
+        <v>-1174465.317925241</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>-913298.9780252411</v>
+        <v>-1174454.317925241</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="C19" t="n">
-        <v>6.08</v>
+        <v>5.89</v>
       </c>
       <c r="D19" t="n">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="E19" t="n">
-        <v>6.08</v>
+        <v>5.89</v>
       </c>
       <c r="F19" t="n">
-        <v>11.1112</v>
+        <v>522788.8656</v>
       </c>
       <c r="G19" t="n">
-        <v>-913298.9780252411</v>
+        <v>-1697243.183525241</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="C20" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="D20" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="E20" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>244.222</v>
+        <v>270869.3757</v>
       </c>
       <c r="G20" t="n">
-        <v>-913298.9780252411</v>
+        <v>-1968112.559225241</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="C21" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="D21" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="E21" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="F21" t="n">
-        <v>1555.778</v>
+        <v>20732.6301</v>
       </c>
       <c r="G21" t="n">
-        <v>-913298.9780252411</v>
+        <v>-1968112.559225241</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.07</v>
+        <v>5.93</v>
       </c>
       <c r="C22" t="n">
         <v>5.93</v>
       </c>
       <c r="D22" t="n">
-        <v>6.07</v>
+        <v>5.93</v>
       </c>
       <c r="E22" t="n">
         <v>5.93</v>
       </c>
       <c r="F22" t="n">
-        <v>60619.4323</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>-973918.410325241</v>
+        <v>-1968101.559225241</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.07</v>
+        <v>5.96</v>
       </c>
       <c r="C23" t="n">
-        <v>6.07</v>
+        <v>5.96</v>
       </c>
       <c r="D23" t="n">
-        <v>6.07</v>
+        <v>5.96</v>
       </c>
       <c r="E23" t="n">
-        <v>6.07</v>
+        <v>5.96</v>
       </c>
       <c r="F23" t="n">
-        <v>10.1177</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-973908.2926252411</v>
+        <v>-1968091.559225241</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="C24" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D24" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E24" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="F24" t="n">
-        <v>33255.5046</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-1007163.797225241</v>
+        <v>-1968081.559225241</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C25" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D25" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E25" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-1007163.797225241</v>
+        <v>-1968081.559225241</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="C26" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="D26" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="E26" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="F26" t="n">
-        <v>20.6327</v>
+        <v>1733.4512</v>
       </c>
       <c r="G26" t="n">
-        <v>-1007163.797225241</v>
+        <v>-1969815.010425241</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.93</v>
+        <v>6.03</v>
       </c>
       <c r="C27" t="n">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="D27" t="n">
-        <v>5.93</v>
+        <v>6.03</v>
       </c>
       <c r="E27" t="n">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="F27" t="n">
-        <v>129798.7012</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-1136962.498425241</v>
+        <v>-1969805.010425241</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.96</v>
+        <v>5.88</v>
       </c>
       <c r="C28" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>342813.5931</v>
       </c>
       <c r="G28" t="n">
-        <v>-1136952.498425241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>515.4882</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>-1137467.986625241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C30" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F30" t="n">
-        <v>13125.5563</v>
+        <v>82522.1237</v>
       </c>
       <c r="G30" t="n">
-        <v>-1150593.542925241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1400</v>
       </c>
       <c r="G31" t="n">
-        <v>-1150583.542925241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>4380.228</v>
+        <v>6093.8833</v>
       </c>
       <c r="G32" t="n">
-        <v>-1154963.770925241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1530,10 +1566,10 @@
         <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>-1154953.770925241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>3515.0667</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>-1158468.837625241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>3510.0586</v>
+        <v>3883.7499</v>
       </c>
       <c r="G35" t="n">
-        <v>-1161978.896225241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,63 +1655,69 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>4823.6369</v>
       </c>
       <c r="G36" t="n">
-        <v>-1161968.896225241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>42268.6811</v>
+        <v>1557.3333</v>
       </c>
       <c r="G37" t="n">
-        <v>-1161968.896225241</v>
+        <v>-2312618.603525241</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1726,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="E38" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>106048.1539</v>
+        <v>21242.6673</v>
       </c>
       <c r="G38" t="n">
-        <v>-1055920.742325241</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1768,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="C39" t="n">
-        <v>6.07</v>
+        <v>6.04</v>
       </c>
       <c r="D39" t="n">
-        <v>6.07</v>
+        <v>6.04</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="F39" t="n">
-        <v>192532.912</v>
+        <v>1100</v>
       </c>
       <c r="G39" t="n">
-        <v>-863387.8303252412</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1810,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="C40" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="D40" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="E40" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>4800</v>
       </c>
       <c r="G40" t="n">
-        <v>-863377.8303252412</v>
+        <v>-2291375.936225241</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +1852,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.93</v>
+        <v>6.04</v>
       </c>
       <c r="C41" t="n">
-        <v>5.99</v>
+        <v>5.9</v>
       </c>
       <c r="D41" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E41" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="F41" t="n">
-        <v>12818.1366</v>
+        <v>7282.9845</v>
       </c>
       <c r="G41" t="n">
-        <v>-876195.9669252412</v>
+        <v>-2298658.920725241</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +1894,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.99</v>
+        <v>5.9</v>
       </c>
       <c r="C42" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="D42" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E42" t="n">
-        <v>5.99</v>
+        <v>5.9</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>3799.3508</v>
       </c>
       <c r="G42" t="n">
-        <v>-876195.9669252412</v>
+        <v>-2294859.569925241</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +1936,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.93</v>
+        <v>6.04</v>
       </c>
       <c r="C43" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="D43" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E43" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="F43" t="n">
-        <v>54729.0376</v>
+        <v>20900</v>
       </c>
       <c r="G43" t="n">
-        <v>-876195.9669252412</v>
+        <v>-2294859.569925241</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +1978,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="C44" t="n">
-        <v>5.99</v>
+        <v>5.9</v>
       </c>
       <c r="D44" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E44" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="F44" t="n">
-        <v>16405.3369</v>
+        <v>1856.1899</v>
       </c>
       <c r="G44" t="n">
-        <v>-876195.9669252412</v>
+        <v>-2296715.759825241</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2020,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="C45" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="D45" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E45" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-876195.9669252412</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2062,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="C46" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="D46" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="E46" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="F46" t="n">
-        <v>68131.69500000001</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>-944327.6619252411</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2104,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="C47" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="D47" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E47" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>-944316.6619252411</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2146,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="C48" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="D48" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="E48" t="n">
-        <v>5.99</v>
+        <v>6.04</v>
       </c>
       <c r="F48" t="n">
-        <v>12437.1366</v>
+        <v>759.437</v>
       </c>
       <c r="G48" t="n">
-        <v>-944316.6619252411</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2188,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="C49" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="D49" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="E49" t="n">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="F49" t="n">
-        <v>127.5986</v>
+        <v>884.7529</v>
       </c>
       <c r="G49" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2230,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="C50" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="D50" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="E50" t="n">
-        <v>5.93</v>
+        <v>6.04</v>
       </c>
       <c r="F50" t="n">
-        <v>219.95</v>
+        <v>2224.31</v>
       </c>
       <c r="G50" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2296705.759825241</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2272,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="C51" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D51" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E51" t="n">
-        <v>6.08</v>
+        <v>6.04</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>4786.69</v>
       </c>
       <c r="G51" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2314,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C52" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D52" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E52" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F52" t="n">
-        <v>88.8888</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2356,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C53" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D53" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E53" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F53" t="n">
-        <v>88.8888</v>
+        <v>689.0611</v>
       </c>
       <c r="G53" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,74 +2398,88 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="C54" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D54" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E54" t="n">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
       <c r="F54" t="n">
-        <v>519.4443</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M54" t="n">
-        <v>1</v>
-      </c>
+        <v>1.003333333333333</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C55" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D55" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E55" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F55" t="n">
-        <v>350.62</v>
+        <v>44.4444</v>
       </c>
       <c r="G55" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2487,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C56" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D56" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E56" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F56" t="n">
-        <v>24.671</v>
+        <v>43926.6115</v>
       </c>
       <c r="G56" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2523,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="C57" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="D57" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="E57" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F57" t="n">
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-944189.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2559,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="C58" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="D58" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="E58" t="n">
-        <v>6.06</v>
+        <v>5.9</v>
       </c>
       <c r="F58" t="n">
-        <v>10750</v>
+        <v>73.9225</v>
       </c>
       <c r="G58" t="n">
-        <v>-954939.0633252411</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2595,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="C59" t="n">
-        <v>5.91</v>
+        <v>6.05</v>
       </c>
       <c r="D59" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="E59" t="n">
-        <v>5.91</v>
+        <v>6.05</v>
       </c>
       <c r="F59" t="n">
-        <v>219526.2546</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1174465.317925241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2631,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>3776</v>
       </c>
       <c r="G60" t="n">
-        <v>-1174454.317925241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2667,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C61" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="D61" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E61" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="F61" t="n">
-        <v>522788.8656</v>
+        <v>200</v>
       </c>
       <c r="G61" t="n">
-        <v>-1697243.183525241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2703,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C62" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="D62" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E62" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="F62" t="n">
-        <v>270869.3757</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>-1968112.559225241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2739,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="C63" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="D63" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="E63" t="n">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="F63" t="n">
-        <v>20732.6301</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>-1968112.559225241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,34 +2775,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="C64" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="D64" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="E64" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>-1968101.559225241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,28 +2811,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.96</v>
+        <v>5.9</v>
       </c>
       <c r="C65" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="D65" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="E65" t="n">
-        <v>5.96</v>
+        <v>5.89</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>100010</v>
       </c>
       <c r="G65" t="n">
-        <v>-1968091.559225241</v>
+        <v>-2291919.069825241</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2847,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="C66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="D66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="E66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>1811.4238</v>
       </c>
       <c r="G66" t="n">
-        <v>-1968081.559225241</v>
+        <v>-2293730.493625241</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2883,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="C67" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="D67" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="E67" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>772.2033</v>
       </c>
       <c r="G67" t="n">
-        <v>-1968081.559225241</v>
+        <v>-2294502.696925241</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2919,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="C68" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="D68" t="n">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="E68" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="F68" t="n">
-        <v>1733.4512</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>-1969815.010425241</v>
+        <v>-2294492.696925241</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2955,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C69" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D69" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E69" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>5653.8079</v>
       </c>
       <c r="G69" t="n">
-        <v>-1969805.010425241</v>
+        <v>-2294492.696925241</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2991,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.88</v>
+        <v>6.02</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E70" t="n">
-        <v>5.87</v>
+        <v>6.02</v>
       </c>
       <c r="F70" t="n">
-        <v>342813.5931</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2294512.696925241</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +3027,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>851.6652</v>
       </c>
       <c r="G71" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2293661.031725241</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +3063,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E72" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="F72" t="n">
-        <v>82522.1237</v>
+        <v>3472.9085</v>
       </c>
       <c r="G72" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2293661.031725241</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3099,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="F73" t="n">
-        <v>1400</v>
+        <v>2586.6428</v>
       </c>
       <c r="G73" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2291074.388925241</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3135,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="F74" t="n">
-        <v>6093.8833</v>
+        <v>44.4444</v>
       </c>
       <c r="G74" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2291074.388925241</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3171,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>43816.7949</v>
       </c>
       <c r="G75" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2334891.183825241</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3207,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2334881.183825241</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3243,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="F77" t="n">
-        <v>3883.7499</v>
+        <v>5612.7164</v>
       </c>
       <c r="G77" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2334881.183825241</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,67 +3279,65 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F78" t="n">
-        <v>4823.6369</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>6</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F79" t="n">
-        <v>1557.3333</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>-2312618.603525241</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3156,39 +3346,34 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C80" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D80" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F80" t="n">
-        <v>21242.6673</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>-2291375.936225241</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3197,39 +3382,34 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="C81" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D81" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E81" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F81" t="n">
-        <v>1100</v>
+        <v>41097.5744</v>
       </c>
       <c r="G81" t="n">
-        <v>-2291375.936225241</v>
+        <v>-2334981.183825241</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3238,39 +3418,34 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="C82" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="D82" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="E82" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="F82" t="n">
-        <v>4800</v>
+        <v>1093.677204658902</v>
       </c>
       <c r="G82" t="n">
-        <v>-2291375.936225241</v>
+        <v>-2336074.8610299</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3279,39 +3454,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="C83" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="D83" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="E83" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="F83" t="n">
-        <v>7282.9845</v>
+        <v>9029.242899999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-2298658.920725241</v>
+        <v>-2336074.8610299</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3320,39 +3490,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="C84" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="D84" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="E84" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="F84" t="n">
-        <v>3799.3508</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>-2294859.569925241</v>
+        <v>-2336074.8610299</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3361,39 +3526,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="C85" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="D85" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="E85" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F85" t="n">
-        <v>20900</v>
+        <v>11565.5761</v>
       </c>
       <c r="G85" t="n">
-        <v>-2294859.569925241</v>
+        <v>-2347640.4371299</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3402,80 +3562,74 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="C86" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="D86" t="n">
-        <v>6.04</v>
+        <v>6.01</v>
       </c>
       <c r="E86" t="n">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="F86" t="n">
-        <v>1856.1899</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-2296715.759825241</v>
+        <v>-2347630.4371299</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K86" t="n">
-        <v>6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.89</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="C87" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="D87" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="E87" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>850000</v>
       </c>
       <c r="G87" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3197630.4371299</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3485,38 +3639,39 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="D88" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>22686.7712</v>
       </c>
       <c r="G88" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3197630.4371299</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3526,7 +3681,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3536,28 +3691,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3197620.4371299</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3567,7 +3723,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3577,28 +3733,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="C90" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="D90" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="E90" t="n">
-        <v>6.04</v>
+        <v>5.88</v>
       </c>
       <c r="F90" t="n">
-        <v>759.437</v>
+        <v>5649.8513</v>
       </c>
       <c r="G90" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3203270.2884299</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3608,7 +3765,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3618,28 +3775,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="C91" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="D91" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="E91" t="n">
-        <v>6.04</v>
+        <v>5.87</v>
       </c>
       <c r="F91" t="n">
-        <v>884.7529</v>
+        <v>4955.9512</v>
       </c>
       <c r="G91" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3203270.2884299</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3649,7 +3807,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3659,28 +3817,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="C92" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="D92" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="E92" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="F92" t="n">
-        <v>2224.31</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>-2296705.759825241</v>
+        <v>-3203270.2884299</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3690,7 +3849,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3700,28 +3859,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="C93" t="n">
-        <v>6.05</v>
+        <v>5.98</v>
       </c>
       <c r="D93" t="n">
-        <v>6.05</v>
+        <v>5.98</v>
       </c>
       <c r="E93" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="F93" t="n">
-        <v>4786.69</v>
+        <v>4979</v>
       </c>
       <c r="G93" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3203270.2884299</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3731,7 +3891,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3741,28 +3901,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="C94" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="D94" t="n">
-        <v>6.05</v>
+        <v>5.88</v>
       </c>
       <c r="E94" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>25584.1689</v>
       </c>
       <c r="G94" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3228854.4573299</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3772,7 +3933,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3782,28 +3943,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="C95" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D95" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E95" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F95" t="n">
-        <v>689.0611</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3228844.4573299</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3813,7 +3975,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3823,38 +3985,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="C96" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D96" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E96" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3228844.4573299</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3864,38 +4029,41 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="C97" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D97" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E97" t="n">
-        <v>6.05</v>
+        <v>5.87</v>
       </c>
       <c r="F97" t="n">
-        <v>44.4444</v>
+        <v>77.4496</v>
       </c>
       <c r="G97" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3228844.4573299</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K97" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3905,38 +4073,41 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="C98" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D98" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E98" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F98" t="n">
-        <v>43926.6115</v>
+        <v>194.9748743718593</v>
       </c>
       <c r="G98" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3228844.4573299</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3946,38 +4117,41 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="C99" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="D99" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="E99" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>168.3501</v>
       </c>
       <c r="G99" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3229012.8074299</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3987,38 +4161,41 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="C100" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="D100" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="E100" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F100" t="n">
-        <v>73.9225</v>
+        <v>150</v>
       </c>
       <c r="G100" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3229012.8074299</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.94</v>
+      </c>
       <c r="K100" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4028,28 +4205,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="C101" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="D101" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="E101" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>2101.2012</v>
       </c>
       <c r="G101" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3229012.8074299</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4059,7 +4237,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4069,38 +4247,41 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="C102" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="D102" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="E102" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="F102" t="n">
-        <v>3776</v>
+        <v>2776.448</v>
       </c>
       <c r="G102" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3226236.3594299</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.94</v>
+      </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4110,28 +4291,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="C103" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D103" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E103" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>13498.1193</v>
       </c>
       <c r="G103" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4141,7 +4323,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4151,38 +4333,41 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="C104" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D104" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E104" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>689.3031</v>
       </c>
       <c r="G104" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K104" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4192,28 +4377,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="C105" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D105" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E105" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>7410.1698</v>
       </c>
       <c r="G105" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4223,7 +4409,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4233,38 +4419,41 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="C106" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D106" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E106" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>266.6664</v>
       </c>
       <c r="G106" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K106" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4274,28 +4463,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.9</v>
+        <v>5.97</v>
       </c>
       <c r="C107" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="D107" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
       <c r="E107" t="n">
-        <v>5.89</v>
+        <v>5.97</v>
       </c>
       <c r="F107" t="n">
-        <v>100010</v>
+        <v>222.222</v>
       </c>
       <c r="G107" t="n">
-        <v>-2291919.069825241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4305,7 +4495,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4315,38 +4505,41 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="C108" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="D108" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="E108" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="F108" t="n">
-        <v>1811.4238</v>
+        <v>311.1108</v>
       </c>
       <c r="G108" t="n">
-        <v>-2293730.493625241</v>
+        <v>-3212738.2401299</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K108" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4356,28 +4549,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C109" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="D109" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E109" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F109" t="n">
-        <v>772.2033</v>
+        <v>9698.5355</v>
       </c>
       <c r="G109" t="n">
-        <v>-2294502.696925241</v>
+        <v>-3222436.7756299</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4387,7 +4581,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4397,38 +4591,41 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="C110" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="D110" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="E110" t="n">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>-2294492.696925241</v>
+        <v>-3222425.7756299</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.87</v>
+      </c>
       <c r="K110" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4438,1738 +4635,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5653.8079</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2294492.696925241</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C112" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E112" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2294512.696925241</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F113" t="n">
-        <v>851.6652</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3472.9085</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2586.6428</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F116" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F117" t="n">
-        <v>43816.7949</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2334891.183825241</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5612.7164</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F120" t="n">
-        <v>100</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F121" t="n">
-        <v>100</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C122" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F122" t="n">
-        <v>100</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C123" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F123" t="n">
-        <v>41097.5744</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1093.677204658902</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C125" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F125" t="n">
-        <v>9029.242899999999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C126" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F126" t="n">
-        <v>100</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C127" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D127" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F127" t="n">
-        <v>11565.5761</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2347640.4371299</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D128" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2347630.4371299</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K128" t="n">
-        <v>6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F129" t="n">
-        <v>850000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K129" t="n">
-        <v>6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F130" t="n">
-        <v>22686.7712</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-3197620.4371299</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5649.8513</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F133" t="n">
-        <v>4955.9512</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E134" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C135" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D135" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E135" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4979</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D136" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E136" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F136" t="n">
-        <v>25584.1689</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-3228854.4573299</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C137" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D137" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E137" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C138" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D138" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K138" t="n">
-        <v>6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F139" t="n">
-        <v>77.4496</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C140" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D140" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E140" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F140" t="n">
-        <v>194.9748743718593</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D141" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E141" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F141" t="n">
-        <v>168.3501</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D142" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F142" t="n">
-        <v>150</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C143" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D143" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E143" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2101.2012</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C144" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D144" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E144" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2776.448</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-3226236.3594299</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C145" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E145" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F145" t="n">
-        <v>13498.1193</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C146" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F146" t="n">
-        <v>689.3031</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K146" t="n">
-        <v>6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C147" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D147" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E147" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7410.1698</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C148" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D148" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F148" t="n">
-        <v>266.6664</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K148" t="n">
-        <v>6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D149" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E149" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F149" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C150" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D150" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E150" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F150" t="n">
-        <v>311.1108</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F151" t="n">
-        <v>9698.5355</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-3222436.7756299</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C152" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F152" t="n">
-        <v>11</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-3222425.7756299</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="C2" t="n">
         <v>5.99</v>
@@ -447,13 +447,13 @@
         <v>5.99</v>
       </c>
       <c r="E2" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>16405.3369</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-876195.9669252412</v>
+        <v>-61155.36618784386</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>5.99</v>
       </c>
       <c r="C3" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="D3" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="E3" t="n">
         <v>5.99</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>29.7044</v>
       </c>
       <c r="G3" t="n">
-        <v>-876195.9669252412</v>
+        <v>-61125.66178784386</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="C4" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="D4" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="E4" t="n">
-        <v>5.92</v>
+        <v>6.08</v>
       </c>
       <c r="F4" t="n">
-        <v>68131.69500000001</v>
+        <v>6916.336</v>
       </c>
       <c r="G4" t="n">
-        <v>-944327.6619252411</v>
+        <v>-68041.99778784385</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="C5" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="D5" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="E5" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="G5" t="n">
-        <v>-944316.6619252411</v>
+        <v>-67549.99778784385</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="C6" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="D6" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="E6" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="F6" t="n">
-        <v>12437.1366</v>
+        <v>13.1362</v>
       </c>
       <c r="G6" t="n">
-        <v>-944316.6619252411</v>
+        <v>-67549.99778784385</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="C7" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="D7" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="E7" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="F7" t="n">
-        <v>127.5986</v>
+        <v>309.9582</v>
       </c>
       <c r="G7" t="n">
-        <v>-944189.0633252411</v>
+        <v>-67549.99778784385</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="C8" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="D8" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="E8" t="n">
-        <v>5.93</v>
+        <v>6.09</v>
       </c>
       <c r="F8" t="n">
-        <v>219.95</v>
+        <v>246.3054</v>
       </c>
       <c r="G8" t="n">
-        <v>-944189.0633252411</v>
+        <v>-67549.99778784385</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -693,19 +693,19 @@
         <v>6.08</v>
       </c>
       <c r="C9" t="n">
-        <v>6.08</v>
+        <v>5.87</v>
       </c>
       <c r="D9" t="n">
         <v>6.08</v>
       </c>
       <c r="E9" t="n">
-        <v>6.08</v>
+        <v>5.87</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>617220.7087</v>
       </c>
       <c r="G9" t="n">
-        <v>-944189.0633252411</v>
+        <v>-684770.7064878438</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="C10" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="D10" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="E10" t="n">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="F10" t="n">
-        <v>88.8888</v>
+        <v>23709.9233</v>
       </c>
       <c r="G10" t="n">
-        <v>-944189.0633252411</v>
+        <v>-661060.7831878437</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="C11" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="D11" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="E11" t="n">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="F11" t="n">
-        <v>88.8888</v>
+        <v>28804.0183</v>
       </c>
       <c r="G11" t="n">
-        <v>-944189.0633252411</v>
+        <v>-689864.8014878437</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="C12" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D12" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E12" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="F12" t="n">
-        <v>519.4443</v>
+        <v>12.972</v>
       </c>
       <c r="G12" t="n">
-        <v>-944189.0633252411</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C13" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D13" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E13" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F13" t="n">
-        <v>350.62</v>
+        <v>321.1108</v>
       </c>
       <c r="G13" t="n">
-        <v>-944189.0633252411</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C14" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D14" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E14" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F14" t="n">
-        <v>24.671</v>
+        <v>72.13339999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-944189.0633252411</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C15" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D15" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E15" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>133.3332</v>
       </c>
       <c r="G15" t="n">
-        <v>-944189.0633252411</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="C16" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="D16" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="E16" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="F16" t="n">
-        <v>10750</v>
+        <v>266.6664</v>
       </c>
       <c r="G16" t="n">
-        <v>-954939.0633252411</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.93</v>
+        <v>6.07</v>
       </c>
       <c r="C17" t="n">
-        <v>5.91</v>
+        <v>6.07</v>
       </c>
       <c r="D17" t="n">
-        <v>5.93</v>
+        <v>6.07</v>
       </c>
       <c r="E17" t="n">
-        <v>5.91</v>
+        <v>6.07</v>
       </c>
       <c r="F17" t="n">
-        <v>219526.2546</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-1174465.317925241</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-1174454.317925241</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.9</v>
+        <v>6.07</v>
       </c>
       <c r="C19" t="n">
-        <v>5.89</v>
+        <v>6.07</v>
       </c>
       <c r="D19" t="n">
-        <v>5.9</v>
+        <v>6.07</v>
       </c>
       <c r="E19" t="n">
-        <v>5.89</v>
+        <v>6.07</v>
       </c>
       <c r="F19" t="n">
-        <v>522788.8656</v>
+        <v>516.2339373970347</v>
       </c>
       <c r="G19" t="n">
-        <v>-1697243.183525241</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="C20" t="n">
-        <v>5.88</v>
+        <v>6.07</v>
       </c>
       <c r="D20" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>6.07</v>
       </c>
       <c r="F20" t="n">
-        <v>270869.3757</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>-1968112.559225241</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.88</v>
+        <v>6.06</v>
       </c>
       <c r="C21" t="n">
-        <v>5.88</v>
+        <v>6.07</v>
       </c>
       <c r="D21" t="n">
-        <v>5.88</v>
+        <v>6.07</v>
       </c>
       <c r="E21" t="n">
-        <v>5.88</v>
+        <v>6.06</v>
       </c>
       <c r="F21" t="n">
-        <v>20732.6301</v>
+        <v>496.4715</v>
       </c>
       <c r="G21" t="n">
-        <v>-1968112.559225241</v>
+        <v>-689851.8294878438</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1164,16 +1164,16 @@
         <v>5.93</v>
       </c>
       <c r="D22" t="n">
-        <v>5.93</v>
+        <v>6.07</v>
       </c>
       <c r="E22" t="n">
         <v>5.93</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>16897.9875</v>
       </c>
       <c r="G22" t="n">
-        <v>-1968101.559225241</v>
+        <v>-706749.8169878438</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.96</v>
+        <v>6.07</v>
       </c>
       <c r="C23" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="D23" t="n">
-        <v>5.96</v>
+        <v>6.07</v>
       </c>
       <c r="E23" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>32991.433</v>
       </c>
       <c r="G23" t="n">
-        <v>-1968091.559225241</v>
+        <v>-706749.8169878438</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="C24" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="D24" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="E24" t="n">
-        <v>6.01</v>
+        <v>5.93</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>13165.54506260297</v>
       </c>
       <c r="G24" t="n">
-        <v>-1968081.559225241</v>
+        <v>-693584.2719252409</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C25" t="n">
-        <v>6.01</v>
+        <v>5.93</v>
       </c>
       <c r="D25" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E25" t="n">
-        <v>6.01</v>
+        <v>5.93</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>72450.2105</v>
       </c>
       <c r="G25" t="n">
-        <v>-1968081.559225241</v>
+        <v>-766034.4824252409</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.88</v>
+        <v>6.06</v>
       </c>
       <c r="C26" t="n">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="D26" t="n">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="E26" t="n">
-        <v>5.88</v>
+        <v>6.06</v>
       </c>
       <c r="F26" t="n">
-        <v>1733.4512</v>
+        <v>57226.0639</v>
       </c>
       <c r="G26" t="n">
-        <v>-1969815.010425241</v>
+        <v>-708808.418525241</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="C27" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="D27" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="E27" t="n">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>121.8888</v>
       </c>
       <c r="G27" t="n">
-        <v>-1969805.010425241</v>
+        <v>-708686.529725241</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.88</v>
+        <v>6.08</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E28" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="F28" t="n">
-        <v>342813.5931</v>
+        <v>110283.2306</v>
       </c>
       <c r="G28" t="n">
-        <v>-2312618.603525241</v>
+        <v>-818969.760325241</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>39389.9048</v>
       </c>
       <c r="G29" t="n">
-        <v>-2312618.603525241</v>
+        <v>-779579.855525241</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.87</v>
+        <v>6.08</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E30" t="n">
-        <v>5.87</v>
+        <v>6.06</v>
       </c>
       <c r="F30" t="n">
-        <v>82522.1237</v>
+        <v>33717.9554</v>
       </c>
       <c r="G30" t="n">
-        <v>-2312618.603525241</v>
+        <v>-779579.855525241</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="F31" t="n">
-        <v>1400</v>
+        <v>44419.9013</v>
       </c>
       <c r="G31" t="n">
-        <v>-2312618.603525241</v>
+        <v>-779579.855525241</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="F32" t="n">
-        <v>6093.8833</v>
+        <v>337026.8981</v>
       </c>
       <c r="G32" t="n">
-        <v>-2312618.603525241</v>
+        <v>-1116606.753625241</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>183107.998</v>
       </c>
       <c r="G33" t="n">
-        <v>-2312618.603525241</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>33042.276</v>
       </c>
       <c r="G34" t="n">
-        <v>-2312618.603525241</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F35" t="n">
-        <v>3883.7499</v>
+        <v>26589.0168</v>
       </c>
       <c r="G35" t="n">
-        <v>-2312618.603525241</v>
+        <v>-933498.7556252411</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,35 +1662,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="F36" t="n">
-        <v>4823.6369</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>-2312618.603525241</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1702,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="F37" t="n">
-        <v>1557.3333</v>
+        <v>44.4444</v>
       </c>
       <c r="G37" t="n">
-        <v>-2312618.603525241</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1726,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1744,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C38" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="D38" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="F38" t="n">
-        <v>21242.6673</v>
+        <v>537.8206</v>
       </c>
       <c r="G38" t="n">
-        <v>-2291375.936225241</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1768,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1786,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="C39" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="D39" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="E39" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="F39" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="G39" t="n">
-        <v>-2291375.936225241</v>
+        <v>-933487.7556252411</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1810,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1828,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="C40" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D40" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E40" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="F40" t="n">
-        <v>4800</v>
+        <v>20188.7776</v>
       </c>
       <c r="G40" t="n">
-        <v>-2291375.936225241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1852,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1870,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C41" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="D41" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E41" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="F41" t="n">
-        <v>7282.9845</v>
+        <v>1954.0625</v>
       </c>
       <c r="G41" t="n">
-        <v>-2298658.920725241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1894,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="C42" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D42" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E42" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="F42" t="n">
-        <v>3799.3508</v>
+        <v>910.2899</v>
       </c>
       <c r="G42" t="n">
-        <v>-2294859.569925241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1936,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C43" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D43" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E43" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F43" t="n">
-        <v>20900</v>
+        <v>1944.1802</v>
       </c>
       <c r="G43" t="n">
-        <v>-2294859.569925241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1978,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1996,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C44" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="D44" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E44" t="n">
-        <v>5.9</v>
+        <v>6.08</v>
       </c>
       <c r="F44" t="n">
-        <v>1856.1899</v>
+        <v>88.8888</v>
       </c>
       <c r="G44" t="n">
-        <v>-2296715.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2020,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C45" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D45" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E45" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>966.931</v>
       </c>
       <c r="G45" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2062,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C46" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D46" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E46" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>88.8888</v>
       </c>
       <c r="G46" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2104,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2122,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C47" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D47" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E47" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F47" t="n">
         <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2146,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2164,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C48" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D48" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E48" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F48" t="n">
-        <v>759.437</v>
+        <v>11.1112</v>
       </c>
       <c r="G48" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2188,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2206,38 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C49" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D49" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E49" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F49" t="n">
-        <v>884.7529</v>
+        <v>244.222</v>
       </c>
       <c r="G49" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2248,38 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C50" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D50" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E50" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F50" t="n">
-        <v>2224.31</v>
+        <v>1555.778</v>
       </c>
       <c r="G50" t="n">
-        <v>-2296705.759825241</v>
+        <v>-913298.9780252411</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2290,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="C51" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D51" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E51" t="n">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="F51" t="n">
-        <v>4786.69</v>
+        <v>60619.4323</v>
       </c>
       <c r="G51" t="n">
-        <v>-2291919.069825241</v>
+        <v>-973918.410325241</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C52" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="D52" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E52" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>10.1177</v>
       </c>
       <c r="G52" t="n">
-        <v>-2291919.069825241</v>
+        <v>-973908.2926252411</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2356,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2374,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="C53" t="n">
         <v>6.05</v>
@@ -2383,29 +2283,23 @@
         <v>6.05</v>
       </c>
       <c r="E53" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="F53" t="n">
-        <v>689.0611</v>
+        <v>33255.5046</v>
       </c>
       <c r="G53" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2428,28 +2322,22 @@
         <v>6.05</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>1.003333333333333</v>
+        <v>1</v>
       </c>
       <c r="N54" t="inlineStr"/>
     </row>
@@ -2470,10 +2358,10 @@
         <v>6.05</v>
       </c>
       <c r="F55" t="n">
-        <v>44.4444</v>
+        <v>20.6327</v>
       </c>
       <c r="G55" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1007163.797225241</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2494,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="C56" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="D56" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E56" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="F56" t="n">
-        <v>43926.6115</v>
+        <v>129798.7012</v>
       </c>
       <c r="G56" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1136962.498425241</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2530,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="C57" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="D57" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="E57" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="F57" t="n">
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1136952.498425241</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2566,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="C58" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="D58" t="n">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="E58" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F58" t="n">
-        <v>73.9225</v>
+        <v>515.4882</v>
       </c>
       <c r="G58" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1137467.986625241</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2602,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="C59" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D59" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E59" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>13125.5563</v>
       </c>
       <c r="G59" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1150593.542925241</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2638,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C60" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D60" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E60" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F60" t="n">
-        <v>3776</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1150583.542925241</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2674,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="C61" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D61" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E61" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>4380.228</v>
       </c>
       <c r="G61" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1154963.770925241</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2710,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1154953.770925241</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2746,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="C63" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="D63" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="E63" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>3515.0667</v>
       </c>
       <c r="G63" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1158468.837625241</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2782,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="C64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="E64" t="n">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>3510.0586</v>
       </c>
       <c r="G64" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1161978.896225241</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2818,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.9</v>
+        <v>5.98</v>
       </c>
       <c r="C65" t="n">
-        <v>6.05</v>
+        <v>5.98</v>
       </c>
       <c r="D65" t="n">
-        <v>6.05</v>
+        <v>5.98</v>
       </c>
       <c r="E65" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="F65" t="n">
-        <v>100010</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-2291919.069825241</v>
+        <v>-1161968.896225241</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2854,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="C66" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="D66" t="n">
-        <v>6.04</v>
+        <v>5.98</v>
       </c>
       <c r="E66" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F66" t="n">
-        <v>1811.4238</v>
+        <v>42268.6811</v>
       </c>
       <c r="G66" t="n">
-        <v>-2293730.493625241</v>
+        <v>-1161968.896225241</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2890,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="C67" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
         <v>5.89</v>
       </c>
       <c r="F67" t="n">
-        <v>772.2033</v>
+        <v>106048.1539</v>
       </c>
       <c r="G67" t="n">
-        <v>-2294502.696925241</v>
+        <v>-1055920.742325241</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2926,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="D68" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="E68" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>192532.912</v>
       </c>
       <c r="G68" t="n">
-        <v>-2294492.696925241</v>
+        <v>-863387.8303252412</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2962,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="C69" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="D69" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="E69" t="n">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="F69" t="n">
-        <v>5653.8079</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-2294492.696925241</v>
+        <v>-863377.8303252412</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2998,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.02</v>
+        <v>5.93</v>
       </c>
       <c r="C70" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="D70" t="n">
-        <v>6.02</v>
+        <v>5.99</v>
       </c>
       <c r="E70" t="n">
-        <v>6.02</v>
+        <v>5.93</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>12818.1366</v>
       </c>
       <c r="G70" t="n">
-        <v>-2294512.696925241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3034,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C71" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="D71" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="E71" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="F71" t="n">
-        <v>851.6652</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-2293661.031725241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3070,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.03</v>
+        <v>5.93</v>
       </c>
       <c r="C72" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="D72" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="E72" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="F72" t="n">
-        <v>3472.9085</v>
+        <v>54729.0376</v>
       </c>
       <c r="G72" t="n">
-        <v>-2293661.031725241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3106,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="C73" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="D73" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="E73" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="F73" t="n">
-        <v>2586.6428</v>
+        <v>16405.3369</v>
       </c>
       <c r="G73" t="n">
-        <v>-2291074.388925241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3142,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="C74" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="D74" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="E74" t="n">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="F74" t="n">
-        <v>44.4444</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-2291074.388925241</v>
+        <v>-876195.9669252412</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3178,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="C75" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="D75" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="E75" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="F75" t="n">
-        <v>43816.7949</v>
+        <v>68131.69500000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-2334891.183825241</v>
+        <v>-944327.6619252411</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3214,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="C76" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="D76" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="E76" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>-2334881.183825241</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3250,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.89</v>
+        <v>5.99</v>
       </c>
       <c r="C77" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="D77" t="n">
-        <v>6.03</v>
+        <v>5.99</v>
       </c>
       <c r="E77" t="n">
-        <v>5.89</v>
+        <v>5.99</v>
       </c>
       <c r="F77" t="n">
-        <v>5612.7164</v>
+        <v>12437.1366</v>
       </c>
       <c r="G77" t="n">
-        <v>-2334881.183825241</v>
+        <v>-944316.6619252411</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3286,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.02</v>
+        <v>6.06</v>
       </c>
       <c r="C78" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="D78" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E78" t="n">
-        <v>6.02</v>
+        <v>6.06</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>127.5986</v>
       </c>
       <c r="G78" t="n">
-        <v>-2334981.183825241</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3322,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="C79" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="D79" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E79" t="n">
-        <v>6.02</v>
+        <v>5.93</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>219.95</v>
       </c>
       <c r="G79" t="n">
-        <v>-2334981.183825241</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3358,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="C80" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="D80" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E80" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-2334981.183825241</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3394,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="C81" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="D81" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E81" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="F81" t="n">
-        <v>41097.5744</v>
+        <v>88.8888</v>
       </c>
       <c r="G81" t="n">
-        <v>-2334981.183825241</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3430,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C82" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D82" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E82" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F82" t="n">
-        <v>1093.677204658902</v>
+        <v>88.8888</v>
       </c>
       <c r="G82" t="n">
-        <v>-2336074.8610299</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3466,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.01</v>
+        <v>5.99</v>
       </c>
       <c r="C83" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D83" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E83" t="n">
-        <v>6.01</v>
+        <v>5.99</v>
       </c>
       <c r="F83" t="n">
-        <v>9029.242899999999</v>
+        <v>519.4443</v>
       </c>
       <c r="G83" t="n">
-        <v>-2336074.8610299</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3502,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C84" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D84" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E84" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>350.62</v>
       </c>
       <c r="G84" t="n">
-        <v>-2336074.8610299</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3538,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="C85" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="D85" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="E85" t="n">
-        <v>5.89</v>
+        <v>6.08</v>
       </c>
       <c r="F85" t="n">
-        <v>11565.5761</v>
+        <v>24.671</v>
       </c>
       <c r="G85" t="n">
-        <v>-2347640.4371299</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3574,35 +3462,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C86" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D86" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E86" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F86" t="n">
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-2347630.4371299</v>
+        <v>-944189.0633252411</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K86" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3614,1028 +3498,3636 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-954939.0633252411</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F88" t="n">
+        <v>219526.2546</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1174465.317925241</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1174454.317925241</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C90" t="n">
         <v>5.89</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D90" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F90" t="n">
+        <v>522788.8656</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1697243.183525241</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F91" t="n">
+        <v>270869.3757</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1968112.559225241</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20732.6301</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1968112.559225241</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1968101.559225241</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1968091.559225241</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1968081.559225241</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1968081.559225241</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1733.4512</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1969815.010425241</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1969805.010425241</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
         <v>5.87</v>
       </c>
-      <c r="D87" t="n">
+      <c r="F99" t="n">
+        <v>342813.5931</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F101" t="n">
+        <v>82522.1237</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6093.8833</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>200</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3883.7499</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4823.6369</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1557.3333</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2312618.603525241</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21242.6673</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7282.9845</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2298658.920725241</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3799.3508</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2294859.569925241</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20900</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2294859.569925241</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1856.1899</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2296715.759825241</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F119" t="n">
+        <v>759.437</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F120" t="n">
+        <v>884.7529</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2224.31</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4786.69</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>200</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>689.0611</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F126" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>43926.6115</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>73.9225</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3776</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E136" t="n">
         <v>5.89</v>
       </c>
-      <c r="E87" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F87" t="n">
-        <v>850000</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
+      <c r="F136" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1811.4238</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2293730.493625241</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>5.89</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="C138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F138" t="n">
+        <v>772.2033</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2294502.696925241</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2294492.696925241</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5653.8079</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2294492.696925241</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2294512.696925241</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F142" t="n">
+        <v>851.6652</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2293661.031725241</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3472.9085</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2293661.031725241</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2586.6428</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2291074.388925241</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F145" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2291074.388925241</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F146" t="n">
+        <v>43816.7949</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2334891.183825241</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2334881.183825241</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K147" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5612.7164</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2334881.183825241</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F88" t="n">
-        <v>22686.7712</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
         <v>5.89</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>6</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6</v>
-      </c>
-      <c r="F89" t="n">
-        <v>10</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-3197620.4371299</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
         <v>5.89</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5649.8513</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
         <v>5.89</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C91" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E91" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4955.9512</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>5.89</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="C152" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F152" t="n">
+        <v>41097.5744</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1093.677204658902</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
         <v>5.89</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D93" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E93" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F93" t="n">
-        <v>4979</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9029.242899999999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
         <v>5.89</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D94" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F94" t="n">
-        <v>25584.1689</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-3228854.4573299</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
         <v>5.89</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F95" t="n">
-        <v>10</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>5.89</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="C156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11565.5761</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2347640.4371299</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F157" t="n">
         <v>10</v>
       </c>
-      <c r="G96" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K96" t="n">
+      <c r="G157" t="n">
+        <v>-2347630.4371299</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>5.89</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="K157" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C158" t="n">
         <v>5.87</v>
       </c>
-      <c r="C97" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D158" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E158" t="n">
         <v>5.87</v>
       </c>
-      <c r="F97" t="n">
-        <v>77.4496</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K97" t="n">
+      <c r="F158" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
         <v>5.89</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F98" t="n">
-        <v>194.9748743718593</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K98" t="n">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F159" t="n">
+        <v>22686.7712</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
         <v>5.89</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C99" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D99" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F99" t="n">
-        <v>168.3501</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K99" t="n">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3197620.4371299</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
         <v>5.89</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F100" t="n">
-        <v>150</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K100" t="n">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5649.8513</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
         <v>5.89</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2101.2012</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4955.9512</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
         <v>5.89</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2776.448</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-3226236.3594299</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K102" t="n">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
         <v>5.89</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E103" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F103" t="n">
-        <v>13498.1193</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4979</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
         <v>5.89</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D104" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E104" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F104" t="n">
-        <v>689.3031</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K104" t="n">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F165" t="n">
+        <v>25584.1689</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3228854.4573299</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
         <v>5.89</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>5.97</v>
       </c>
-      <c r="D105" t="n">
+      <c r="C166" t="n">
         <v>5.97</v>
       </c>
-      <c r="E105" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7410.1698</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
+      <c r="D166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
         <v>5.89</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>5.97</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C167" t="n">
         <v>5.97</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D167" t="n">
         <v>5.97</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E167" t="n">
         <v>5.97</v>
       </c>
-      <c r="F106" t="n">
-        <v>266.6664</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K106" t="n">
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
         <v>5.89</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C168" t="n">
         <v>5.97</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D168" t="n">
         <v>5.97</v>
       </c>
-      <c r="D107" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F107" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
+      <c r="E168" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F168" t="n">
+        <v>77.4496</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
         <v>5.89</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>5.97</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C169" t="n">
         <v>5.97</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D169" t="n">
         <v>5.97</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E169" t="n">
         <v>5.97</v>
       </c>
-      <c r="F108" t="n">
-        <v>311.1108</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K108" t="n">
+      <c r="F169" t="n">
+        <v>194.9748743718593</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
         <v>5.89</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F109" t="n">
-        <v>9698.5355</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-3222436.7756299</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F170" t="n">
+        <v>168.3501</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
         <v>5.89</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F110" t="n">
-        <v>11</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-3222425.7756299</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K110" t="n">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
         <v>5.89</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2101.2012</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2776.448</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3226236.3594299</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K173" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F174" t="n">
+        <v>13498.1193</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="K174" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F175" t="n">
+        <v>689.3031</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K175" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7410.1698</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F177" t="n">
+        <v>266.6664</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F178" t="n">
+        <v>222.222</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F179" t="n">
+        <v>311.1108</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-3212738.2401299</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9698.5355</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-3222436.7756299</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F181" t="n">
+        <v>11</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-3222425.7756299</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-61155.36618784386</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-61125.66178784386</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-684770.7064878438</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-1136962.498425241</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-1055920.742325241</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-876195.9669252412</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-954939.0633252411</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,19 @@
         <v>-2312618.603525241</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3955,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3994,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4033,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4072,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4111,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4150,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4189,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4228,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4267,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4306,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4345,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4384,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4423,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4462,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4501,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4540,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4579,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4618,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4657,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4696,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4735,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4774,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4813,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4852,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4891,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4930,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4969,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5008,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5047,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +5084,21 @@
         <v>-2293730.493625241</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5125,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5164,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5203,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5242,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5281,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5320,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5359,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5396,23 @@
         <v>-2291074.388925241</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>6.04</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5437,21 @@
         <v>-2334891.183825241</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,20 +5478,19 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K147" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5718,22 +5517,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5760,22 +5556,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,22 +5595,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5842,24 +5632,21 @@
         <v>-2334981.183825241</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5884,24 +5671,21 @@
         <v>-2334981.183825241</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5926,24 +5710,21 @@
         <v>-2336074.8610299</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5968,24 +5749,21 @@
         <v>-2336074.8610299</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6010,24 +5788,23 @@
         <v>-2336074.8610299</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>6.01</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6052,24 +5829,23 @@
         <v>-2347640.4371299</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>6.01</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6094,26 +5870,23 @@
         <v>-2347630.4371299</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J157" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K157" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6140,22 +5913,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6182,22 +5952,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,22 +5991,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6266,22 +6030,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6308,22 +6069,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6350,22 +6108,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6392,22 +6147,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6434,22 +6186,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6474,24 +6223,23 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J166" t="n">
+        <v>6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6518,22 +6266,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6560,22 +6305,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6602,22 +6344,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6644,22 +6383,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6686,22 +6422,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6728,22 +6461,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6768,26 +6498,21 @@
         <v>-3226236.3594299</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6812,26 +6537,21 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6856,26 +6576,21 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6902,22 +6617,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6944,22 +6656,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6986,22 +6695,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7028,22 +6734,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7070,22 +6773,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7112,24 +6812,21 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-61155.36618784386</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-61125.66178784386</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-68041.99778784385</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-684770.7064878438</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661060.7831878437</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-689864.8014878437</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-706749.8169878438</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-706749.8169878438</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-693584.2719252409</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-766034.4824252409</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1116606.753625241</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-973918.410325241</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-973908.2926252411</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1136962.498425241</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1055920.742325241</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-876195.9669252412</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-954939.0633252411</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3916,14 +3916,10 @@
         <v>-2312618.603525241</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3956,2559 +3952,2183 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>6</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="C109" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21242.6673</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2291375.936225241</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7282.9845</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2298658.920725241</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3799.3508</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2294859.569925241</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20900</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2294859.569925241</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1856.1899</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2296715.759825241</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F119" t="n">
+        <v>759.437</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F120" t="n">
+        <v>884.7529</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2224.31</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2296705.759825241</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4786.69</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>200</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>689.0611</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F126" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>43926.6115</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>73.9225</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3776</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2291919.069825241</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1811.4238</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2293730.493625241</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F138" t="n">
+        <v>772.2033</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2294502.696925241</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2294492.696925241</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5653.8079</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2294492.696925241</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2294512.696925241</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F142" t="n">
+        <v>851.6652</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2293661.031725241</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3472.9085</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2293661.031725241</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2586.6428</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2291074.388925241</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F145" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2291074.388925241</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F146" t="n">
+        <v>43816.7949</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2334891.183825241</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2334881.183825241</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5612.7164</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2334881.183825241</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F152" t="n">
+        <v>41097.5744</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2334981.183825241</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1093.677204658902</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9029.242899999999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2336074.8610299</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11565.5761</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2347640.4371299</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2347630.4371299</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F158" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F159" t="n">
+        <v>22686.7712</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3197630.4371299</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3197620.4371299</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5649.8513</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4955.9512</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4979</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3203270.2884299</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F165" t="n">
+        <v>25584.1689</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3228854.4573299</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F168" t="n">
+        <v>77.4496</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F169" t="n">
+        <v>194.9748743718593</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3228844.4573299</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F170" t="n">
+        <v>168.3501</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>6</v>
-      </c>
-      <c r="C109" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E109" t="n">
-        <v>6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21242.6673</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6</v>
-      </c>
-      <c r="K109" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J171" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2101.2012</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-3229012.8074299</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2776.448</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3226236.3594299</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D110" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E110" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F112" t="n">
-        <v>7282.9845</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2298658.920725241</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3799.3508</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2294859.569925241</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F114" t="n">
-        <v>20900</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2294859.569925241</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1856.1899</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2296715.759825241</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C117" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F117" t="n">
-        <v>100</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F118" t="n">
-        <v>100</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F119" t="n">
-        <v>759.437</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F120" t="n">
-        <v>884.7529</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2224.31</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C122" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4786.69</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C123" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F123" t="n">
-        <v>200</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F124" t="n">
-        <v>689.0611</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C125" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F125" t="n">
-        <v>100</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C126" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F126" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F127" t="n">
-        <v>43926.6115</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D128" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D129" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>73.9225</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C130" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E130" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3776</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D132" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E132" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F132" t="n">
-        <v>200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F133" t="n">
-        <v>100</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C134" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D134" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E134" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F134" t="n">
-        <v>100</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C135" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D135" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E135" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F135" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E136" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F136" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1811.4238</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2293730.493625241</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C138" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D138" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F138" t="n">
-        <v>772.2033</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2294502.696925241</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C139" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D139" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E139" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2294492.696925241</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D140" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E140" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5653.8079</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2294492.696925241</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C141" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D141" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2294512.696925241</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D142" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E142" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F142" t="n">
-        <v>851.6652</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3472.9085</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2586.6428</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F145" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J145" t="n">
-        <v>6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C146" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F146" t="n">
-        <v>43816.7949</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2334891.183825241</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F147" t="n">
-        <v>10</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5612.7164</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F149" t="n">
-        <v>100</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F150" t="n">
-        <v>100</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F151" t="n">
-        <v>100</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F152" t="n">
-        <v>41097.5744</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1093.677204658902</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F154" t="n">
-        <v>9029.242899999999</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F155" t="n">
-        <v>100</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J155" t="n">
-        <v>6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11565.5761</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2347640.4371299</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F157" t="n">
-        <v>10</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2347630.4371299</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D158" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F158" t="n">
-        <v>850000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F159" t="n">
-        <v>22686.7712</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6</v>
-      </c>
-      <c r="F160" t="n">
-        <v>10</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-3197620.4371299</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F161" t="n">
-        <v>5649.8513</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4955.9512</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F163" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4979</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F165" t="n">
-        <v>25584.1689</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-3228854.4573299</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F166" t="n">
-        <v>10</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J166" t="n">
-        <v>6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D167" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C168" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D168" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F168" t="n">
-        <v>77.4496</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F169" t="n">
-        <v>194.9748743718593</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D170" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F170" t="n">
-        <v>168.3501</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F171" t="n">
-        <v>150</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2101.2012</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2776.448</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-3226236.3594299</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6537,11 +6157,13 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J174" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6576,11 +6198,13 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J175" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6619,7 +6243,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6658,7 +6282,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6697,7 +6321,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6736,7 +6360,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6775,7 +6399,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6814,7 +6438,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6827,6 +6451,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-68041.99778784385</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-684770.7064878438</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661060.7831878437</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-689864.8014878437</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-689851.8294878438</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-706749.8169878438</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-706749.8169878438</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-693584.2719252409</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-766034.4824252409</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1116606.753625241</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-973918.410325241</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-973908.2926252411</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5764,10 +5764,14 @@
         <v>-3203270.2884299</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.98</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5800,8 +5804,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +5843,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +5882,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +5960,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,15 +5996,17 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +6039,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6038,17 +6074,15 @@
         <v>-3229012.8074299</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6079,15 +6113,17 @@
         <v>-3229012.8074299</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6116,17 +6152,15 @@
         <v>-3226236.3594299</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6157,13 +6191,11 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6198,13 +6230,11 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6243,7 +6273,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6282,7 +6312,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6321,7 +6351,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6360,7 +6390,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6399,7 +6429,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6438,7 +6468,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6451,6 +6481,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-61155.36618784386</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-61125.66178784386</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-67549.99778784385</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-684770.7064878438</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661060.7831878437</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-913298.9780252411</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-973918.410325241</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-973908.2926252411</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1007163.797225241</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1136962.498425241</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1136952.498425241</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1137467.986625241</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-876195.9669252412</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2291375.936225241</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2291919.069825241</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5104,10 +5104,14 @@
         <v>-2293661.031725241</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J143" t="n">
+        <v>6.03</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5137,11 +5141,19 @@
         <v>-2291074.388925241</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J144" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5182,19 @@
         <v>-2291074.388925241</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5223,19 @@
         <v>-2334891.183825241</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5264,19 @@
         <v>-2334881.183825241</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5305,19 @@
         <v>-2334881.183825241</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5349,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5427,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5466,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5505,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5541,19 @@
         <v>-2336074.8610299</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5621,19 @@
         <v>-2347640.4371299</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5662,19 @@
         <v>-2347630.4371299</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5703,19 @@
         <v>-3197630.4371299</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5744,19 @@
         <v>-3197630.4371299</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5785,19 @@
         <v>-3197620.4371299</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J160" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5829,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,15 +5904,17 @@
         <v>-3203270.2884299</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+        <v>6.03</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5947,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -5844,11 +5986,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5879,11 +6021,13 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J166" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5918,11 +6062,13 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J167" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -5961,7 +6107,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -5996,11 +6142,13 @@
         <v>-3228844.4573299</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J169" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6039,7 +6187,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6078,7 +6226,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6117,7 +6265,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6156,7 +6304,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6195,7 +6343,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6234,7 +6382,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6273,7 +6421,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6308,11 +6456,13 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J177" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6347,11 +6497,13 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J178" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6386,11 +6538,13 @@
         <v>-3212738.2401299</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J179" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6425,11 +6579,13 @@
         <v>-3222436.7756299</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J180" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6464,11 +6620,13 @@
         <v>-3222425.7756299</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J181" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest FAB.xlsx
+++ b/BackTest/2019-10-19 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-61155.36618784386</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>29.7044</v>
       </c>
       <c r="G3" t="n">
-        <v>-61125.66178784386</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6916.336</v>
       </c>
       <c r="G4" t="n">
-        <v>-68041.99778784385</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>492</v>
       </c>
       <c r="G5" t="n">
-        <v>-67549.99778784385</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13.1362</v>
       </c>
       <c r="G6" t="n">
-        <v>-67549.99778784385</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>309.9582</v>
       </c>
       <c r="G7" t="n">
-        <v>-67549.99778784385</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>246.3054</v>
       </c>
       <c r="G8" t="n">
-        <v>-67549.99778784385</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>617220.7087</v>
       </c>
       <c r="G9" t="n">
-        <v>-684770.7064878438</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>23709.9233</v>
       </c>
       <c r="G10" t="n">
-        <v>-661060.7831878437</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>28804.0183</v>
       </c>
       <c r="G11" t="n">
-        <v>-689864.8014878437</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12.972</v>
       </c>
       <c r="G12" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>321.1108</v>
       </c>
       <c r="G13" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>72.13339999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>133.3332</v>
       </c>
       <c r="G15" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>266.6664</v>
       </c>
       <c r="G16" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>516.2339373970347</v>
       </c>
       <c r="G19" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>496.4715</v>
       </c>
       <c r="G21" t="n">
-        <v>-689851.8294878438</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16897.9875</v>
       </c>
       <c r="G22" t="n">
-        <v>-706749.8169878438</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>32991.433</v>
       </c>
       <c r="G23" t="n">
-        <v>-706749.8169878438</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>13165.54506260297</v>
       </c>
       <c r="G24" t="n">
-        <v>-693584.2719252409</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>72450.2105</v>
       </c>
       <c r="G25" t="n">
-        <v>-766034.4824252409</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>57226.0639</v>
       </c>
       <c r="G26" t="n">
-        <v>-708808.418525241</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>121.8888</v>
       </c>
       <c r="G27" t="n">
-        <v>-708686.529725241</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>110283.2306</v>
       </c>
       <c r="G28" t="n">
-        <v>-818969.760325241</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>39389.9048</v>
       </c>
       <c r="G29" t="n">
-        <v>-779579.855525241</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>33717.9554</v>
       </c>
       <c r="G30" t="n">
-        <v>-779579.855525241</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>44419.9013</v>
       </c>
       <c r="G31" t="n">
-        <v>-779579.855525241</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>337026.8981</v>
       </c>
       <c r="G32" t="n">
-        <v>-1116606.753625241</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>183107.998</v>
       </c>
       <c r="G33" t="n">
-        <v>-933498.7556252411</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>33042.276</v>
       </c>
       <c r="G34" t="n">
-        <v>-933498.7556252411</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>26589.0168</v>
       </c>
       <c r="G35" t="n">
-        <v>-933498.7556252411</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>-933487.7556252411</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>44.4444</v>
       </c>
       <c r="G37" t="n">
-        <v>-933487.7556252411</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>537.8206</v>
       </c>
       <c r="G38" t="n">
-        <v>-933487.7556252411</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8000</v>
       </c>
       <c r="G39" t="n">
-        <v>-933487.7556252411</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>20188.7776</v>
       </c>
       <c r="G40" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1954.0625</v>
       </c>
       <c r="G41" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>910.2899</v>
       </c>
       <c r="G42" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1944.1802</v>
       </c>
       <c r="G43" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>88.8888</v>
       </c>
       <c r="G44" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>966.931</v>
       </c>
       <c r="G45" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>88.8888</v>
       </c>
       <c r="G46" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>11.1112</v>
       </c>
       <c r="G48" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>244.222</v>
       </c>
       <c r="G49" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1555.778</v>
       </c>
       <c r="G50" t="n">
-        <v>-913298.9780252411</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>60619.4323</v>
       </c>
       <c r="G51" t="n">
-        <v>-973918.410325241</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10.1177</v>
       </c>
       <c r="G52" t="n">
-        <v>-973908.2926252411</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>33255.5046</v>
       </c>
       <c r="G53" t="n">
-        <v>-1007163.797225241</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>-1007163.797225241</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>20.6327</v>
       </c>
       <c r="G55" t="n">
-        <v>-1007163.797225241</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>129798.7012</v>
       </c>
       <c r="G56" t="n">
-        <v>-1136962.498425241</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-1136952.498425241</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>515.4882</v>
       </c>
       <c r="G58" t="n">
-        <v>-1137467.986625241</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>13125.5563</v>
       </c>
       <c r="G59" t="n">
-        <v>-1150593.542925241</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-1150583.542925241</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>4380.228</v>
       </c>
       <c r="G61" t="n">
-        <v>-1154963.770925241</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-1154953.770925241</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3515.0667</v>
       </c>
       <c r="G63" t="n">
-        <v>-1158468.837625241</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3510.0586</v>
       </c>
       <c r="G64" t="n">
-        <v>-1161978.896225241</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,19 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-1161968.896225241</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2367,23 @@
         <v>42268.6811</v>
       </c>
       <c r="G66" t="n">
-        <v>-1161968.896225241</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>5.98</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2405,21 @@
         <v>106048.1539</v>
       </c>
       <c r="G67" t="n">
-        <v>-1055920.742325241</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2441,23 @@
         <v>192532.912</v>
       </c>
       <c r="G68" t="n">
-        <v>-863387.8303252412</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2479,23 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-863377.8303252412</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>6.07</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2517,21 @@
         <v>12818.1366</v>
       </c>
       <c r="G70" t="n">
-        <v>-876195.9669252412</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2553,21 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-876195.9669252412</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2589,21 @@
         <v>54729.0376</v>
       </c>
       <c r="G72" t="n">
-        <v>-876195.9669252412</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2625,21 @@
         <v>16405.3369</v>
       </c>
       <c r="G73" t="n">
-        <v>-876195.9669252412</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2661,21 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-876195.9669252412</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2697,21 @@
         <v>68131.69500000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-944327.6619252411</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2733,21 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>-944316.6619252411</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2769,21 @@
         <v>12437.1366</v>
       </c>
       <c r="G77" t="n">
-        <v>-944316.6619252411</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2805,21 @@
         <v>127.5986</v>
       </c>
       <c r="G78" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2841,21 @@
         <v>219.95</v>
       </c>
       <c r="G79" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2877,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2913,21 @@
         <v>88.8888</v>
       </c>
       <c r="G81" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2949,21 @@
         <v>88.8888</v>
       </c>
       <c r="G82" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2985,21 @@
         <v>519.4443</v>
       </c>
       <c r="G83" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3021,21 @@
         <v>350.62</v>
       </c>
       <c r="G84" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3057,21 @@
         <v>24.671</v>
       </c>
       <c r="G85" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3093,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-944189.0633252411</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3129,21 @@
         <v>10750</v>
       </c>
       <c r="G87" t="n">
-        <v>-954939.0633252411</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3165,21 @@
         <v>219526.2546</v>
       </c>
       <c r="G88" t="n">
-        <v>-1174465.317925241</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3201,21 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>-1174454.317925241</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3237,21 @@
         <v>522788.8656</v>
       </c>
       <c r="G90" t="n">
-        <v>-1697243.183525241</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3273,21 @@
         <v>270869.3757</v>
       </c>
       <c r="G91" t="n">
-        <v>-1968112.559225241</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3309,21 @@
         <v>20732.6301</v>
       </c>
       <c r="G92" t="n">
-        <v>-1968112.559225241</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3345,21 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>-1968101.559225241</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3381,21 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-1968091.559225241</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3417,21 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-1968081.559225241</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3453,21 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-1968081.559225241</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3489,21 @@
         <v>1733.4512</v>
       </c>
       <c r="G97" t="n">
-        <v>-1969815.010425241</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3525,21 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-1969805.010425241</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3561,21 @@
         <v>342813.5931</v>
       </c>
       <c r="G99" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3597,21 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3633,21 @@
         <v>82522.1237</v>
       </c>
       <c r="G101" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3669,21 @@
         <v>1400</v>
       </c>
       <c r="G102" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3705,21 @@
         <v>6093.8833</v>
       </c>
       <c r="G103" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3741,21 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3777,21 @@
         <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3813,21 @@
         <v>3883.7499</v>
       </c>
       <c r="G106" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3849,21 @@
         <v>4823.6369</v>
       </c>
       <c r="G107" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3885,21 @@
         <v>1557.3333</v>
       </c>
       <c r="G108" t="n">
-        <v>-2312618.603525241</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3921,21 @@
         <v>21242.6673</v>
       </c>
       <c r="G109" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3957,21 @@
         <v>1100</v>
       </c>
       <c r="G110" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3993,21 @@
         <v>4800</v>
       </c>
       <c r="G111" t="n">
-        <v>-2291375.936225241</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4029,21 @@
         <v>7282.9845</v>
       </c>
       <c r="G112" t="n">
-        <v>-2298658.920725241</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4065,21 @@
         <v>3799.3508</v>
       </c>
       <c r="G113" t="n">
-        <v>-2294859.569925241</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4101,21 @@
         <v>20900</v>
       </c>
       <c r="G114" t="n">
-        <v>-2294859.569925241</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4137,21 @@
         <v>1856.1899</v>
       </c>
       <c r="G115" t="n">
-        <v>-2296715.759825241</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4173,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4209,21 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4245,21 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4281,21 @@
         <v>759.437</v>
       </c>
       <c r="G119" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4317,21 @@
         <v>884.7529</v>
       </c>
       <c r="G120" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4353,21 @@
         <v>2224.31</v>
       </c>
       <c r="G121" t="n">
-        <v>-2296705.759825241</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4389,21 @@
         <v>4786.69</v>
       </c>
       <c r="G122" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4425,21 @@
         <v>200</v>
       </c>
       <c r="G123" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4461,21 @@
         <v>689.0611</v>
       </c>
       <c r="G124" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4497,21 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4533,21 @@
         <v>44.4444</v>
       </c>
       <c r="G126" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4569,21 @@
         <v>43926.6115</v>
       </c>
       <c r="G127" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4605,21 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4641,21 @@
         <v>73.9225</v>
       </c>
       <c r="G129" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4677,21 @@
         <v>2000</v>
       </c>
       <c r="G130" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4713,21 @@
         <v>3776</v>
       </c>
       <c r="G131" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4749,21 @@
         <v>200</v>
       </c>
       <c r="G132" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4785,21 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4821,21 @@
         <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4857,21 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4893,21 @@
         <v>100010</v>
       </c>
       <c r="G136" t="n">
-        <v>-2291919.069825241</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4929,21 @@
         <v>1811.4238</v>
       </c>
       <c r="G137" t="n">
-        <v>-2293730.493625241</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4965,21 @@
         <v>772.2033</v>
       </c>
       <c r="G138" t="n">
-        <v>-2294502.696925241</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5001,21 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-2294492.696925241</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5037,21 @@
         <v>5653.8079</v>
       </c>
       <c r="G140" t="n">
-        <v>-2294492.696925241</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5073,21 @@
         <v>20</v>
       </c>
       <c r="G141" t="n">
-        <v>-2294512.696925241</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5109,21 @@
         <v>851.6652</v>
       </c>
       <c r="G142" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,22 +5145,21 @@
         <v>3472.9085</v>
       </c>
       <c r="G143" t="n">
-        <v>-2293661.031725241</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J143" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5138,26 +5181,21 @@
         <v>2586.6428</v>
       </c>
       <c r="G144" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J144" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5179,26 +5217,21 @@
         <v>44.4444</v>
       </c>
       <c r="G145" t="n">
-        <v>-2291074.388925241</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J145" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5220,26 +5253,21 @@
         <v>43816.7949</v>
       </c>
       <c r="G146" t="n">
-        <v>-2334891.183825241</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J146" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5261,26 +5289,21 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5302,26 +5325,21 @@
         <v>5612.7164</v>
       </c>
       <c r="G148" t="n">
-        <v>-2334881.183825241</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J148" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5343,24 +5361,21 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5382,24 +5397,21 @@
         <v>100</v>
       </c>
       <c r="G150" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5421,24 +5433,21 @@
         <v>100</v>
       </c>
       <c r="G151" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5460,24 +5469,21 @@
         <v>41097.5744</v>
       </c>
       <c r="G152" t="n">
-        <v>-2334981.183825241</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5499,24 +5505,21 @@
         <v>1093.677204658902</v>
       </c>
       <c r="G153" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5538,26 +5541,21 @@
         <v>9029.242899999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J154" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5579,24 +5577,21 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>-2336074.8610299</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5618,26 +5613,21 @@
         <v>11565.5761</v>
       </c>
       <c r="G156" t="n">
-        <v>-2347640.4371299</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5659,26 +5649,21 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>-2347630.4371299</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5700,26 +5685,21 @@
         <v>850000</v>
       </c>
       <c r="G158" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5741,26 +5721,21 @@
         <v>22686.7712</v>
       </c>
       <c r="G159" t="n">
-        <v>-3197630.4371299</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J159" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5782,26 +5757,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>-3197620.4371299</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5823,24 +5793,21 @@
         <v>5649.8513</v>
       </c>
       <c r="G161" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5862,24 +5829,21 @@
         <v>4955.9512</v>
       </c>
       <c r="G162" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5901,24 +5865,21 @@
         <v>10000</v>
       </c>
       <c r="G163" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5940,24 +5901,21 @@
         <v>4979</v>
       </c>
       <c r="G164" t="n">
-        <v>-3203270.2884299</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5979,24 +5937,21 @@
         <v>25584.1689</v>
       </c>
       <c r="G165" t="n">
-        <v>-3228854.4573299</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6018,26 +5973,21 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J166" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6059,26 +6009,21 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J167" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6100,24 +6045,21 @@
         <v>77.4496</v>
       </c>
       <c r="G168" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6139,26 +6081,21 @@
         <v>194.9748743718593</v>
       </c>
       <c r="G169" t="n">
-        <v>-3228844.4573299</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6180,24 +6117,21 @@
         <v>168.3501</v>
       </c>
       <c r="G170" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6219,24 +6153,21 @@
         <v>150</v>
       </c>
       <c r="G171" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6258,24 +6189,21 @@
         <v>2101.2012</v>
       </c>
       <c r="G172" t="n">
-        <v>-3229012.8074299</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6297,24 +6225,21 @@
         <v>2776.448</v>
       </c>
       <c r="G173" t="n">
-        <v>-3226236.3594299</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6336,24 +6261,21 @@
         <v>13498.1193</v>
       </c>
       <c r="G174" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6375,24 +6297,21 @@
         <v>689.3031</v>
       </c>
       <c r="G175" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6414,24 +6333,21 @@
         <v>7410.1698</v>
       </c>
       <c r="G176" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6453,26 +6369,21 @@
         <v>266.6664</v>
       </c>
       <c r="G177" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J177" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6494,26 +6405,21 @@
         <v>222.222</v>
       </c>
       <c r="G178" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J178" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6535,26 +6441,21 @@
         <v>311.1108</v>
       </c>
       <c r="G179" t="n">
-        <v>-3212738.2401299</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J179" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6576,26 +6477,23 @@
         <v>9698.5355</v>
       </c>
       <c r="G180" t="n">
-        <v>-3222436.7756299</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>5.97</v>
       </c>
       <c r="I180" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6617,26 +6515,23 @@
         <v>11</v>
       </c>
       <c r="G181" t="n">
-        <v>-3222425.7756299</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>5.87</v>
       </c>
       <c r="I181" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J181" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
